--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1424F22-4C33-4C17-ACFE-07396D319F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2276B1-6EA1-4FF1-A1FE-687D26187432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L680" sqref="L680"/>
+      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G684" sqref="G684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2276B1-6EA1-4FF1-A1FE-687D26187432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EFA916-E90B-4ACF-B110-9B32DF2C7EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A654" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G684" sqref="G684"/>
+      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H399" sqref="H399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12026,17 +12026,39 @@
         <v>19</v>
       </c>
       <c r="G346" s="7"/>
-      <c r="H346" s="7"/>
-      <c r="I346" s="7"/>
-      <c r="J346" s="7"/>
-      <c r="K346" s="7"/>
-      <c r="L346" s="7"/>
-      <c r="M346" s="7"/>
-      <c r="N346" s="7"/>
-      <c r="O346" s="7"/>
-      <c r="P346" s="7"/>
-      <c r="Q346" s="7"/>
-      <c r="R346" s="7"/>
+      <c r="H346" s="7">
+        <v>1</v>
+      </c>
+      <c r="I346" s="7">
+        <v>9</v>
+      </c>
+      <c r="J346" s="7">
+        <v>29</v>
+      </c>
+      <c r="K346" s="7">
+        <v>32</v>
+      </c>
+      <c r="L346" s="7">
+        <v>36</v>
+      </c>
+      <c r="M346" s="7">
+        <v>22</v>
+      </c>
+      <c r="N346" s="7">
+        <v>7</v>
+      </c>
+      <c r="O346" s="7">
+        <v>30</v>
+      </c>
+      <c r="P346" s="7">
+        <v>32</v>
+      </c>
+      <c r="Q346" s="7">
+        <v>29</v>
+      </c>
+      <c r="R346" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="347" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A347" s="18" t="s">
@@ -12060,15 +12082,33 @@
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
-      <c r="J347" s="7"/>
-      <c r="K347" s="7"/>
-      <c r="L347" s="7"/>
-      <c r="M347" s="7"/>
-      <c r="N347" s="7"/>
-      <c r="O347" s="7"/>
-      <c r="P347" s="7"/>
-      <c r="Q347" s="7"/>
-      <c r="R347" s="7"/>
+      <c r="J347" s="7">
+        <v>6</v>
+      </c>
+      <c r="K347" s="7">
+        <v>9</v>
+      </c>
+      <c r="L347" s="7">
+        <v>16</v>
+      </c>
+      <c r="M347" s="7">
+        <v>8</v>
+      </c>
+      <c r="N347" s="7">
+        <v>1</v>
+      </c>
+      <c r="O347" s="7">
+        <v>11</v>
+      </c>
+      <c r="P347" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q347" s="7">
+        <v>2</v>
+      </c>
+      <c r="R347" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="348" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A348" s="18" t="s">
@@ -12091,16 +12131,36 @@
       </c>
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
-      <c r="I348" s="7"/>
-      <c r="J348" s="7"/>
-      <c r="K348" s="7"/>
-      <c r="L348" s="7"/>
-      <c r="M348" s="7"/>
-      <c r="N348" s="7"/>
-      <c r="O348" s="7"/>
-      <c r="P348" s="7"/>
-      <c r="Q348" s="7"/>
-      <c r="R348" s="7"/>
+      <c r="I348" s="7">
+        <v>5</v>
+      </c>
+      <c r="J348" s="7">
+        <v>7</v>
+      </c>
+      <c r="K348" s="7">
+        <v>6</v>
+      </c>
+      <c r="L348" s="7">
+        <v>8</v>
+      </c>
+      <c r="M348" s="7">
+        <v>8</v>
+      </c>
+      <c r="N348" s="7">
+        <v>2</v>
+      </c>
+      <c r="O348" s="7">
+        <v>14</v>
+      </c>
+      <c r="P348" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q348" s="7">
+        <v>7</v>
+      </c>
+      <c r="R348" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="349" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A349" s="18" t="s">
@@ -12123,16 +12183,36 @@
       </c>
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
-      <c r="I349" s="7"/>
-      <c r="J349" s="7"/>
-      <c r="K349" s="7"/>
-      <c r="L349" s="7"/>
-      <c r="M349" s="7"/>
-      <c r="N349" s="7"/>
-      <c r="O349" s="7"/>
-      <c r="P349" s="7"/>
-      <c r="Q349" s="7"/>
-      <c r="R349" s="7"/>
+      <c r="I349" s="7">
+        <v>4</v>
+      </c>
+      <c r="J349" s="7">
+        <v>6</v>
+      </c>
+      <c r="K349" s="7">
+        <v>11</v>
+      </c>
+      <c r="L349" s="7">
+        <v>7</v>
+      </c>
+      <c r="M349" s="7">
+        <v>16</v>
+      </c>
+      <c r="N349" s="7">
+        <v>6</v>
+      </c>
+      <c r="O349" s="7">
+        <v>16</v>
+      </c>
+      <c r="P349" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q349" s="7">
+        <v>2</v>
+      </c>
+      <c r="R349" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="350" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A350" s="18" t="s">
@@ -12155,16 +12235,36 @@
       </c>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
-      <c r="I350" s="7"/>
-      <c r="J350" s="7"/>
-      <c r="K350" s="7"/>
-      <c r="L350" s="7"/>
-      <c r="M350" s="7"/>
-      <c r="N350" s="7"/>
-      <c r="O350" s="7"/>
-      <c r="P350" s="7"/>
-      <c r="Q350" s="7"/>
-      <c r="R350" s="7"/>
+      <c r="I350" s="7">
+        <v>2</v>
+      </c>
+      <c r="J350" s="7">
+        <v>8</v>
+      </c>
+      <c r="K350" s="7">
+        <v>17</v>
+      </c>
+      <c r="L350" s="7">
+        <v>6</v>
+      </c>
+      <c r="M350" s="7">
+        <v>11</v>
+      </c>
+      <c r="N350" s="7">
+        <v>7</v>
+      </c>
+      <c r="O350" s="7">
+        <v>8</v>
+      </c>
+      <c r="P350" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q350" s="7">
+        <v>4</v>
+      </c>
+      <c r="R350" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="351" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A351" s="18" t="s">
@@ -12186,16 +12286,36 @@
         <v>22</v>
       </c>
       <c r="G351" s="7"/>
-      <c r="H351" s="7"/>
-      <c r="I351" s="7"/>
-      <c r="J351" s="7"/>
-      <c r="K351" s="7"/>
-      <c r="L351" s="7"/>
-      <c r="M351" s="7"/>
-      <c r="N351" s="7"/>
-      <c r="O351" s="7"/>
-      <c r="P351" s="7"/>
-      <c r="Q351" s="7"/>
+      <c r="H351" s="7">
+        <v>2</v>
+      </c>
+      <c r="I351" s="7">
+        <v>6</v>
+      </c>
+      <c r="J351" s="7">
+        <v>25</v>
+      </c>
+      <c r="K351" s="7">
+        <v>24</v>
+      </c>
+      <c r="L351" s="7">
+        <v>28</v>
+      </c>
+      <c r="M351" s="7">
+        <v>1</v>
+      </c>
+      <c r="N351" s="7">
+        <v>1</v>
+      </c>
+      <c r="O351" s="7">
+        <v>2</v>
+      </c>
+      <c r="P351" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q351" s="7">
+        <v>3</v>
+      </c>
       <c r="R351" s="7"/>
     </row>
     <row r="352" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12219,16 +12339,36 @@
       </c>
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
-      <c r="I352" s="7"/>
-      <c r="J352" s="7"/>
-      <c r="K352" s="7"/>
-      <c r="L352" s="7"/>
-      <c r="M352" s="7"/>
-      <c r="N352" s="7"/>
-      <c r="O352" s="7"/>
-      <c r="P352" s="7"/>
-      <c r="Q352" s="7"/>
-      <c r="R352" s="7"/>
+      <c r="I352" s="7">
+        <v>3</v>
+      </c>
+      <c r="J352" s="7">
+        <v>15</v>
+      </c>
+      <c r="K352" s="7">
+        <v>17</v>
+      </c>
+      <c r="L352" s="7">
+        <v>20</v>
+      </c>
+      <c r="M352" s="7">
+        <v>104</v>
+      </c>
+      <c r="N352" s="7">
+        <v>48</v>
+      </c>
+      <c r="O352" s="7">
+        <v>79</v>
+      </c>
+      <c r="P352" s="7">
+        <v>39</v>
+      </c>
+      <c r="Q352" s="7">
+        <v>7</v>
+      </c>
+      <c r="R352" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="353" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="s">
@@ -12251,16 +12391,36 @@
       </c>
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
-      <c r="I353" s="7"/>
-      <c r="J353" s="7"/>
-      <c r="K353" s="7"/>
-      <c r="L353" s="7"/>
-      <c r="M353" s="7"/>
-      <c r="N353" s="7"/>
-      <c r="O353" s="7"/>
-      <c r="P353" s="7"/>
-      <c r="Q353" s="7"/>
-      <c r="R353" s="7"/>
+      <c r="I353" s="7">
+        <v>5</v>
+      </c>
+      <c r="J353" s="7">
+        <v>18</v>
+      </c>
+      <c r="K353" s="7">
+        <v>28</v>
+      </c>
+      <c r="L353" s="7">
+        <v>26</v>
+      </c>
+      <c r="M353" s="7">
+        <v>61</v>
+      </c>
+      <c r="N353" s="7">
+        <v>20</v>
+      </c>
+      <c r="O353" s="7">
+        <v>92</v>
+      </c>
+      <c r="P353" s="7">
+        <v>41</v>
+      </c>
+      <c r="Q353" s="7">
+        <v>27</v>
+      </c>
+      <c r="R353" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="354" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A354" s="18"/>
@@ -12303,16 +12463,36 @@
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
-      <c r="I355" s="7"/>
-      <c r="J355" s="7"/>
-      <c r="K355" s="7"/>
-      <c r="L355" s="7"/>
-      <c r="M355" s="7"/>
-      <c r="N355" s="7"/>
-      <c r="O355" s="7"/>
-      <c r="P355" s="7"/>
-      <c r="Q355" s="7"/>
-      <c r="R355" s="7"/>
+      <c r="I355" s="7">
+        <v>4</v>
+      </c>
+      <c r="J355" s="7">
+        <v>3</v>
+      </c>
+      <c r="K355" s="7">
+        <v>2</v>
+      </c>
+      <c r="L355" s="7">
+        <v>3</v>
+      </c>
+      <c r="M355" s="7">
+        <v>9</v>
+      </c>
+      <c r="N355" s="7">
+        <v>2</v>
+      </c>
+      <c r="O355" s="7">
+        <v>14</v>
+      </c>
+      <c r="P355" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q355" s="7">
+        <v>5</v>
+      </c>
+      <c r="R355" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="356" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A356" s="18" t="s">
@@ -12339,12 +12519,24 @@
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
-      <c r="M356" s="7"/>
-      <c r="N356" s="7"/>
-      <c r="O356" s="7"/>
-      <c r="P356" s="7"/>
-      <c r="Q356" s="7"/>
-      <c r="R356" s="7"/>
+      <c r="M356" s="7">
+        <v>54</v>
+      </c>
+      <c r="N356" s="7">
+        <v>19</v>
+      </c>
+      <c r="O356" s="7">
+        <v>44</v>
+      </c>
+      <c r="P356" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q356" s="7">
+        <v>4</v>
+      </c>
+      <c r="R356" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="357" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A357" s="18"/>
@@ -12387,15 +12579,33 @@
       </c>
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
-      <c r="I358" s="7"/>
-      <c r="J358" s="7"/>
-      <c r="K358" s="7"/>
-      <c r="L358" s="7"/>
-      <c r="M358" s="7"/>
-      <c r="N358" s="7"/>
-      <c r="O358" s="7"/>
-      <c r="P358" s="7"/>
-      <c r="Q358" s="7"/>
+      <c r="I358" s="7">
+        <v>4</v>
+      </c>
+      <c r="J358" s="7">
+        <v>8</v>
+      </c>
+      <c r="K358" s="7">
+        <v>15</v>
+      </c>
+      <c r="L358" s="7">
+        <v>5</v>
+      </c>
+      <c r="M358" s="7">
+        <v>16</v>
+      </c>
+      <c r="N358" s="7">
+        <v>3</v>
+      </c>
+      <c r="O358" s="7">
+        <v>8</v>
+      </c>
+      <c r="P358" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q358" s="7">
+        <v>7</v>
+      </c>
       <c r="R358" s="7"/>
     </row>
     <row r="359" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12419,16 +12629,36 @@
       </c>
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
-      <c r="I359" s="7"/>
-      <c r="J359" s="7"/>
-      <c r="K359" s="7"/>
-      <c r="L359" s="7"/>
-      <c r="M359" s="7"/>
-      <c r="N359" s="7"/>
-      <c r="O359" s="7"/>
-      <c r="P359" s="7"/>
-      <c r="Q359" s="7"/>
-      <c r="R359" s="7"/>
+      <c r="I359" s="7">
+        <v>5</v>
+      </c>
+      <c r="J359" s="7">
+        <v>12</v>
+      </c>
+      <c r="K359" s="7">
+        <v>26</v>
+      </c>
+      <c r="L359" s="7">
+        <v>12</v>
+      </c>
+      <c r="M359" s="7">
+        <v>53</v>
+      </c>
+      <c r="N359" s="7">
+        <v>24</v>
+      </c>
+      <c r="O359" s="7">
+        <v>41</v>
+      </c>
+      <c r="P359" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q359" s="7">
+        <v>6</v>
+      </c>
+      <c r="R359" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="360" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A360" s="18" t="s">
@@ -12451,16 +12681,32 @@
       </c>
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
-      <c r="I360" s="7"/>
-      <c r="J360" s="7"/>
-      <c r="K360" s="7"/>
-      <c r="L360" s="7"/>
+      <c r="I360" s="7">
+        <v>11</v>
+      </c>
+      <c r="J360" s="7">
+        <v>20</v>
+      </c>
+      <c r="K360" s="7">
+        <v>28</v>
+      </c>
+      <c r="L360" s="7">
+        <v>19</v>
+      </c>
       <c r="M360" s="7"/>
       <c r="N360" s="7"/>
-      <c r="O360" s="7"/>
-      <c r="P360" s="7"/>
-      <c r="Q360" s="7"/>
-      <c r="R360" s="7"/>
+      <c r="O360" s="7">
+        <v>6</v>
+      </c>
+      <c r="P360" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q360" s="7">
+        <v>6</v>
+      </c>
+      <c r="R360" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="361" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A361" s="18" t="s">
@@ -12482,17 +12728,39 @@
         <v>54</v>
       </c>
       <c r="G361" s="7"/>
-      <c r="H361" s="7"/>
-      <c r="I361" s="7"/>
-      <c r="J361" s="7"/>
-      <c r="K361" s="7"/>
-      <c r="L361" s="7"/>
-      <c r="M361" s="7"/>
-      <c r="N361" s="7"/>
-      <c r="O361" s="7"/>
-      <c r="P361" s="7"/>
-      <c r="Q361" s="7"/>
-      <c r="R361" s="7"/>
+      <c r="H361" s="7">
+        <v>2</v>
+      </c>
+      <c r="I361" s="7">
+        <v>11</v>
+      </c>
+      <c r="J361" s="7">
+        <v>30</v>
+      </c>
+      <c r="K361" s="7">
+        <v>55</v>
+      </c>
+      <c r="L361" s="7">
+        <v>70</v>
+      </c>
+      <c r="M361" s="7">
+        <v>103</v>
+      </c>
+      <c r="N361" s="7">
+        <v>39</v>
+      </c>
+      <c r="O361" s="7">
+        <v>106</v>
+      </c>
+      <c r="P361" s="7">
+        <v>80</v>
+      </c>
+      <c r="Q361" s="7">
+        <v>51</v>
+      </c>
+      <c r="R361" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="362" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A362" s="18" t="s">
@@ -12514,16 +12782,36 @@
         <v>55</v>
       </c>
       <c r="G362" s="7"/>
-      <c r="H362" s="7"/>
-      <c r="I362" s="7"/>
-      <c r="J362" s="7"/>
-      <c r="K362" s="7"/>
-      <c r="L362" s="7"/>
-      <c r="M362" s="7"/>
-      <c r="N362" s="7"/>
-      <c r="O362" s="7"/>
-      <c r="P362" s="7"/>
-      <c r="Q362" s="7"/>
+      <c r="H362" s="7">
+        <v>1</v>
+      </c>
+      <c r="I362" s="7">
+        <v>12</v>
+      </c>
+      <c r="J362" s="7">
+        <v>35</v>
+      </c>
+      <c r="K362" s="7">
+        <v>28</v>
+      </c>
+      <c r="L362" s="7">
+        <v>35</v>
+      </c>
+      <c r="M362" s="7">
+        <v>5</v>
+      </c>
+      <c r="N362" s="7">
+        <v>3</v>
+      </c>
+      <c r="O362" s="7">
+        <v>6</v>
+      </c>
+      <c r="P362" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q362" s="7">
+        <v>20</v>
+      </c>
       <c r="R362" s="7"/>
     </row>
     <row r="363" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12547,15 +12835,33 @@
       </c>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
-      <c r="I363" s="7"/>
-      <c r="J363" s="7"/>
-      <c r="K363" s="7"/>
-      <c r="L363" s="7"/>
-      <c r="M363" s="7"/>
-      <c r="N363" s="7"/>
-      <c r="O363" s="7"/>
-      <c r="P363" s="7"/>
-      <c r="Q363" s="7"/>
+      <c r="I363" s="7">
+        <v>14</v>
+      </c>
+      <c r="J363" s="7">
+        <v>23</v>
+      </c>
+      <c r="K363" s="7">
+        <v>20</v>
+      </c>
+      <c r="L363" s="7">
+        <v>20</v>
+      </c>
+      <c r="M363" s="7">
+        <v>11</v>
+      </c>
+      <c r="N363" s="7">
+        <v>3</v>
+      </c>
+      <c r="O363" s="7">
+        <v>19</v>
+      </c>
+      <c r="P363" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q363" s="7">
+        <v>4</v>
+      </c>
       <c r="R363" s="7"/>
     </row>
     <row r="364" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12581,14 +12887,28 @@
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
       <c r="J364" s="7"/>
-      <c r="K364" s="7"/>
+      <c r="K364" s="7">
+        <v>1</v>
+      </c>
       <c r="L364" s="7"/>
-      <c r="M364" s="7"/>
-      <c r="N364" s="7"/>
-      <c r="O364" s="7"/>
-      <c r="P364" s="7"/>
-      <c r="Q364" s="7"/>
-      <c r="R364" s="7"/>
+      <c r="M364" s="7">
+        <v>24</v>
+      </c>
+      <c r="N364" s="7">
+        <v>11</v>
+      </c>
+      <c r="O364" s="7">
+        <v>29</v>
+      </c>
+      <c r="P364" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q364" s="7">
+        <v>1</v>
+      </c>
+      <c r="R364" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="365" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A365" s="18" t="s">
@@ -12610,17 +12930,39 @@
         <v>58</v>
       </c>
       <c r="G365" s="7"/>
-      <c r="H365" s="7"/>
-      <c r="I365" s="7"/>
-      <c r="J365" s="7"/>
-      <c r="K365" s="7"/>
-      <c r="L365" s="7"/>
-      <c r="M365" s="7"/>
-      <c r="N365" s="7"/>
-      <c r="O365" s="7"/>
-      <c r="P365" s="7"/>
-      <c r="Q365" s="7"/>
-      <c r="R365" s="7"/>
+      <c r="H365" s="7">
+        <v>7</v>
+      </c>
+      <c r="I365" s="7">
+        <v>15</v>
+      </c>
+      <c r="J365" s="7">
+        <v>37</v>
+      </c>
+      <c r="K365" s="7">
+        <v>44</v>
+      </c>
+      <c r="L365" s="7">
+        <v>40</v>
+      </c>
+      <c r="M365" s="7">
+        <v>185</v>
+      </c>
+      <c r="N365" s="7">
+        <v>91</v>
+      </c>
+      <c r="O365" s="7">
+        <v>180</v>
+      </c>
+      <c r="P365" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q365" s="7">
+        <v>30</v>
+      </c>
+      <c r="R365" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="366" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A366" s="18"/>
@@ -12663,16 +13005,36 @@
       </c>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
-      <c r="I367" s="7"/>
-      <c r="J367" s="7"/>
-      <c r="K367" s="7"/>
-      <c r="L367" s="7"/>
-      <c r="M367" s="7"/>
-      <c r="N367" s="7"/>
-      <c r="O367" s="7"/>
-      <c r="P367" s="7"/>
-      <c r="Q367" s="7"/>
-      <c r="R367" s="7"/>
+      <c r="I367" s="7">
+        <v>11</v>
+      </c>
+      <c r="J367" s="7">
+        <v>26</v>
+      </c>
+      <c r="K367" s="7">
+        <v>28</v>
+      </c>
+      <c r="L367" s="7">
+        <v>44</v>
+      </c>
+      <c r="M367" s="7">
+        <v>188</v>
+      </c>
+      <c r="N367" s="7">
+        <v>62</v>
+      </c>
+      <c r="O367" s="7">
+        <v>174</v>
+      </c>
+      <c r="P367" s="7">
+        <v>69</v>
+      </c>
+      <c r="Q367" s="7">
+        <v>20</v>
+      </c>
+      <c r="R367" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="368" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A368" s="18" t="s">
@@ -12698,13 +13060,27 @@
       <c r="I368" s="7"/>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
-      <c r="L368" s="7"/>
-      <c r="M368" s="7"/>
-      <c r="N368" s="7"/>
-      <c r="O368" s="7"/>
-      <c r="P368" s="7"/>
-      <c r="Q368" s="7"/>
-      <c r="R368" s="7"/>
+      <c r="L368" s="7">
+        <v>1</v>
+      </c>
+      <c r="M368" s="7">
+        <v>121</v>
+      </c>
+      <c r="N368" s="7">
+        <v>37</v>
+      </c>
+      <c r="O368" s="7">
+        <v>103</v>
+      </c>
+      <c r="P368" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q368" s="7">
+        <v>1</v>
+      </c>
+      <c r="R368" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="369" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A369" s="18" t="s">
@@ -12728,15 +13104,31 @@
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
-      <c r="J369" s="7"/>
+      <c r="J369" s="7">
+        <v>1</v>
+      </c>
       <c r="K369" s="7"/>
-      <c r="L369" s="7"/>
-      <c r="M369" s="7"/>
-      <c r="N369" s="7"/>
-      <c r="O369" s="7"/>
-      <c r="P369" s="7"/>
-      <c r="Q369" s="7"/>
-      <c r="R369" s="7"/>
+      <c r="L369" s="7">
+        <v>2</v>
+      </c>
+      <c r="M369" s="7">
+        <v>160</v>
+      </c>
+      <c r="N369" s="7">
+        <v>108</v>
+      </c>
+      <c r="O369" s="7">
+        <v>108</v>
+      </c>
+      <c r="P369" s="7">
+        <v>22</v>
+      </c>
+      <c r="Q369" s="7">
+        <v>1</v>
+      </c>
+      <c r="R369" s="7">
+        <v>24</v>
+      </c>
     </row>
     <row r="370" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A370" s="18" t="s">
@@ -12759,14 +13151,28 @@
       </c>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
-      <c r="I370" s="7"/>
-      <c r="J370" s="7"/>
-      <c r="K370" s="7"/>
-      <c r="L370" s="7"/>
-      <c r="M370" s="7"/>
+      <c r="I370" s="7">
+        <v>1</v>
+      </c>
+      <c r="J370" s="7">
+        <v>1</v>
+      </c>
+      <c r="K370" s="7">
+        <v>1</v>
+      </c>
+      <c r="L370" s="7">
+        <v>4</v>
+      </c>
+      <c r="M370" s="7">
+        <v>1</v>
+      </c>
       <c r="N370" s="7"/>
-      <c r="O370" s="7"/>
-      <c r="P370" s="7"/>
+      <c r="O370" s="7">
+        <v>3</v>
+      </c>
+      <c r="P370" s="7">
+        <v>4</v>
+      </c>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
     </row>
@@ -12790,17 +13196,39 @@
         <v>86</v>
       </c>
       <c r="G371" s="7"/>
-      <c r="H371" s="7"/>
-      <c r="I371" s="7"/>
-      <c r="J371" s="7"/>
-      <c r="K371" s="7"/>
-      <c r="L371" s="7"/>
-      <c r="M371" s="7"/>
-      <c r="N371" s="7"/>
-      <c r="O371" s="7"/>
-      <c r="P371" s="7"/>
-      <c r="Q371" s="7"/>
-      <c r="R371" s="7"/>
+      <c r="H371" s="7">
+        <v>2</v>
+      </c>
+      <c r="I371" s="7">
+        <v>24</v>
+      </c>
+      <c r="J371" s="7">
+        <v>38</v>
+      </c>
+      <c r="K371" s="7">
+        <v>46</v>
+      </c>
+      <c r="L371" s="7">
+        <v>30</v>
+      </c>
+      <c r="M371" s="7">
+        <v>6</v>
+      </c>
+      <c r="N371" s="7">
+        <v>3</v>
+      </c>
+      <c r="O371" s="7">
+        <v>23</v>
+      </c>
+      <c r="P371" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q371" s="7">
+        <v>6</v>
+      </c>
+      <c r="R371" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="372" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A372" s="18" t="s">
@@ -12824,14 +13252,30 @@
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
-      <c r="J372" s="7"/>
-      <c r="K372" s="7"/>
-      <c r="L372" s="7"/>
-      <c r="M372" s="7"/>
-      <c r="N372" s="7"/>
-      <c r="O372" s="7"/>
-      <c r="P372" s="7"/>
-      <c r="Q372" s="7"/>
+      <c r="J372" s="7">
+        <v>3</v>
+      </c>
+      <c r="K372" s="7">
+        <v>7</v>
+      </c>
+      <c r="L372" s="7">
+        <v>3</v>
+      </c>
+      <c r="M372" s="7">
+        <v>4</v>
+      </c>
+      <c r="N372" s="7">
+        <v>3</v>
+      </c>
+      <c r="O372" s="7">
+        <v>5</v>
+      </c>
+      <c r="P372" s="7">
+        <v>4</v>
+      </c>
+      <c r="Q372" s="7">
+        <v>2</v>
+      </c>
       <c r="R372" s="7"/>
     </row>
     <row r="373" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12855,16 +13299,36 @@
       </c>
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
-      <c r="I373" s="7"/>
-      <c r="J373" s="7"/>
-      <c r="K373" s="7"/>
-      <c r="L373" s="7"/>
-      <c r="M373" s="7"/>
-      <c r="N373" s="7"/>
-      <c r="O373" s="7"/>
-      <c r="P373" s="7"/>
-      <c r="Q373" s="7"/>
-      <c r="R373" s="7"/>
+      <c r="I373" s="7">
+        <v>14</v>
+      </c>
+      <c r="J373" s="7">
+        <v>41</v>
+      </c>
+      <c r="K373" s="7">
+        <v>71</v>
+      </c>
+      <c r="L373" s="7">
+        <v>71</v>
+      </c>
+      <c r="M373" s="7">
+        <v>75</v>
+      </c>
+      <c r="N373" s="7">
+        <v>18</v>
+      </c>
+      <c r="O373" s="7">
+        <v>95</v>
+      </c>
+      <c r="P373" s="7">
+        <v>75</v>
+      </c>
+      <c r="Q373" s="7">
+        <v>30</v>
+      </c>
+      <c r="R373" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="374" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A374" s="18" t="s">
@@ -12889,14 +13353,30 @@
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
       <c r="J374" s="7"/>
-      <c r="K374" s="7"/>
-      <c r="L374" s="7"/>
-      <c r="M374" s="7"/>
-      <c r="N374" s="7"/>
-      <c r="O374" s="7"/>
-      <c r="P374" s="7"/>
-      <c r="Q374" s="7"/>
-      <c r="R374" s="7"/>
+      <c r="K374" s="7">
+        <v>1</v>
+      </c>
+      <c r="L374" s="7">
+        <v>1</v>
+      </c>
+      <c r="M374" s="7">
+        <v>62</v>
+      </c>
+      <c r="N374" s="7">
+        <v>14</v>
+      </c>
+      <c r="O374" s="7">
+        <v>75</v>
+      </c>
+      <c r="P374" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q374" s="7">
+        <v>1</v>
+      </c>
+      <c r="R374" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="375" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A375" s="18" t="s">
@@ -12918,17 +13398,39 @@
         <v>90</v>
       </c>
       <c r="G375" s="7"/>
-      <c r="H375" s="7"/>
-      <c r="I375" s="7"/>
-      <c r="J375" s="7"/>
-      <c r="K375" s="7"/>
-      <c r="L375" s="7"/>
-      <c r="M375" s="7"/>
-      <c r="N375" s="7"/>
-      <c r="O375" s="7"/>
-      <c r="P375" s="7"/>
-      <c r="Q375" s="7"/>
-      <c r="R375" s="7"/>
+      <c r="H375" s="7">
+        <v>3</v>
+      </c>
+      <c r="I375" s="7">
+        <v>6</v>
+      </c>
+      <c r="J375" s="7">
+        <v>28</v>
+      </c>
+      <c r="K375" s="7">
+        <v>39</v>
+      </c>
+      <c r="L375" s="7">
+        <v>29</v>
+      </c>
+      <c r="M375" s="7">
+        <v>79</v>
+      </c>
+      <c r="N375" s="7">
+        <v>41</v>
+      </c>
+      <c r="O375" s="7">
+        <v>110</v>
+      </c>
+      <c r="P375" s="7">
+        <v>27</v>
+      </c>
+      <c r="Q375" s="7">
+        <v>11</v>
+      </c>
+      <c r="R375" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="376" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A376" s="18" t="s">
@@ -12953,14 +13455,30 @@
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7"/>
-      <c r="K376" s="7"/>
-      <c r="L376" s="7"/>
-      <c r="M376" s="7"/>
-      <c r="N376" s="7"/>
-      <c r="O376" s="7"/>
-      <c r="P376" s="7"/>
-      <c r="Q376" s="7"/>
-      <c r="R376" s="7"/>
+      <c r="K376" s="7">
+        <v>1</v>
+      </c>
+      <c r="L376" s="7">
+        <v>4</v>
+      </c>
+      <c r="M376" s="7">
+        <v>195</v>
+      </c>
+      <c r="N376" s="7">
+        <v>68</v>
+      </c>
+      <c r="O376" s="7">
+        <v>160</v>
+      </c>
+      <c r="P376" s="7">
+        <v>29</v>
+      </c>
+      <c r="Q376" s="7">
+        <v>7</v>
+      </c>
+      <c r="R376" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="377" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A377" s="18" t="s">
@@ -12982,17 +13500,39 @@
         <v>92</v>
       </c>
       <c r="G377" s="7"/>
-      <c r="H377" s="7"/>
-      <c r="I377" s="7"/>
-      <c r="J377" s="7"/>
-      <c r="K377" s="7"/>
-      <c r="L377" s="7"/>
-      <c r="M377" s="7"/>
-      <c r="N377" s="7"/>
-      <c r="O377" s="7"/>
-      <c r="P377" s="7"/>
-      <c r="Q377" s="7"/>
-      <c r="R377" s="7"/>
+      <c r="H377" s="7">
+        <v>3</v>
+      </c>
+      <c r="I377" s="7">
+        <v>23</v>
+      </c>
+      <c r="J377" s="7">
+        <v>44</v>
+      </c>
+      <c r="K377" s="7">
+        <v>60</v>
+      </c>
+      <c r="L377" s="7">
+        <v>38</v>
+      </c>
+      <c r="M377" s="7">
+        <v>79</v>
+      </c>
+      <c r="N377" s="7">
+        <v>30</v>
+      </c>
+      <c r="O377" s="7">
+        <v>110</v>
+      </c>
+      <c r="P377" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q377" s="7">
+        <v>16</v>
+      </c>
+      <c r="R377" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="378" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A378" s="18" t="s">
@@ -13019,12 +13559,22 @@
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
-      <c r="M378" s="7"/>
-      <c r="N378" s="7"/>
-      <c r="O378" s="7"/>
-      <c r="P378" s="7"/>
+      <c r="M378" s="7">
+        <v>24</v>
+      </c>
+      <c r="N378" s="7">
+        <v>8</v>
+      </c>
+      <c r="O378" s="7">
+        <v>39</v>
+      </c>
+      <c r="P378" s="7">
+        <v>6</v>
+      </c>
       <c r="Q378" s="7"/>
-      <c r="R378" s="7"/>
+      <c r="R378" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="379" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A379" s="18" t="s">
@@ -13046,17 +13596,39 @@
         <v>94</v>
       </c>
       <c r="G379" s="7"/>
-      <c r="H379" s="7"/>
-      <c r="I379" s="7"/>
-      <c r="J379" s="7"/>
-      <c r="K379" s="7"/>
-      <c r="L379" s="7"/>
-      <c r="M379" s="7"/>
-      <c r="N379" s="7"/>
-      <c r="O379" s="7"/>
-      <c r="P379" s="7"/>
-      <c r="Q379" s="7"/>
-      <c r="R379" s="7"/>
+      <c r="H379" s="7">
+        <v>1</v>
+      </c>
+      <c r="I379" s="7">
+        <v>26</v>
+      </c>
+      <c r="J379" s="7">
+        <v>29</v>
+      </c>
+      <c r="K379" s="7">
+        <v>44</v>
+      </c>
+      <c r="L379" s="7">
+        <v>47</v>
+      </c>
+      <c r="M379" s="7">
+        <v>116</v>
+      </c>
+      <c r="N379" s="7">
+        <v>43</v>
+      </c>
+      <c r="O379" s="7">
+        <v>137</v>
+      </c>
+      <c r="P379" s="7">
+        <v>54</v>
+      </c>
+      <c r="Q379" s="7">
+        <v>16</v>
+      </c>
+      <c r="R379" s="7">
+        <v>17</v>
+      </c>
     </row>
     <row r="380" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A380" s="18" t="s">
@@ -13078,17 +13650,39 @@
         <v>95</v>
       </c>
       <c r="G380" s="7"/>
-      <c r="H380" s="7"/>
-      <c r="I380" s="7"/>
-      <c r="J380" s="7"/>
-      <c r="K380" s="7"/>
-      <c r="L380" s="7"/>
-      <c r="M380" s="7"/>
-      <c r="N380" s="7"/>
-      <c r="O380" s="7"/>
-      <c r="P380" s="7"/>
-      <c r="Q380" s="7"/>
-      <c r="R380" s="7"/>
+      <c r="H380" s="7">
+        <v>1</v>
+      </c>
+      <c r="I380" s="7">
+        <v>14</v>
+      </c>
+      <c r="J380" s="7">
+        <v>26</v>
+      </c>
+      <c r="K380" s="7">
+        <v>36</v>
+      </c>
+      <c r="L380" s="7">
+        <v>51</v>
+      </c>
+      <c r="M380" s="7">
+        <v>209</v>
+      </c>
+      <c r="N380" s="7">
+        <v>77</v>
+      </c>
+      <c r="O380" s="7">
+        <v>211</v>
+      </c>
+      <c r="P380" s="7">
+        <v>82</v>
+      </c>
+      <c r="Q380" s="7">
+        <v>32</v>
+      </c>
+      <c r="R380" s="7">
+        <v>19</v>
+      </c>
     </row>
     <row r="381" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A381" s="18" t="s">
@@ -13111,16 +13705,36 @@
       </c>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
-      <c r="I381" s="7"/>
-      <c r="J381" s="7"/>
-      <c r="K381" s="7"/>
-      <c r="L381" s="7"/>
-      <c r="M381" s="7"/>
-      <c r="N381" s="7"/>
-      <c r="O381" s="7"/>
-      <c r="P381" s="7"/>
-      <c r="Q381" s="7"/>
-      <c r="R381" s="7"/>
+      <c r="I381" s="7">
+        <v>14</v>
+      </c>
+      <c r="J381" s="7">
+        <v>24</v>
+      </c>
+      <c r="K381" s="7">
+        <v>29</v>
+      </c>
+      <c r="L381" s="7">
+        <v>35</v>
+      </c>
+      <c r="M381" s="7">
+        <v>127</v>
+      </c>
+      <c r="N381" s="7">
+        <v>30</v>
+      </c>
+      <c r="O381" s="7">
+        <v>137</v>
+      </c>
+      <c r="P381" s="7">
+        <v>55</v>
+      </c>
+      <c r="Q381" s="7">
+        <v>14</v>
+      </c>
+      <c r="R381" s="7">
+        <v>15</v>
+      </c>
     </row>
     <row r="382" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A382" s="18"/>
@@ -13167,12 +13781,22 @@
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
-      <c r="M383" s="7"/>
-      <c r="N383" s="7"/>
-      <c r="O383" s="7"/>
-      <c r="P383" s="7"/>
+      <c r="M383" s="7">
+        <v>82</v>
+      </c>
+      <c r="N383" s="7">
+        <v>24</v>
+      </c>
+      <c r="O383" s="7">
+        <v>74</v>
+      </c>
+      <c r="P383" s="7">
+        <v>9</v>
+      </c>
       <c r="Q383" s="7"/>
-      <c r="R383" s="7"/>
+      <c r="R383" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="384" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A384" s="18"/>
@@ -13213,18 +13837,42 @@
       <c r="F385" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G385" s="7"/>
-      <c r="H385" s="7"/>
-      <c r="I385" s="7"/>
-      <c r="J385" s="7"/>
-      <c r="K385" s="7"/>
-      <c r="L385" s="7"/>
-      <c r="M385" s="7"/>
-      <c r="N385" s="7"/>
-      <c r="O385" s="7"/>
-      <c r="P385" s="7"/>
-      <c r="Q385" s="7"/>
-      <c r="R385" s="7"/>
+      <c r="G385" s="7">
+        <v>1</v>
+      </c>
+      <c r="H385" s="7">
+        <v>1</v>
+      </c>
+      <c r="I385" s="7">
+        <v>12</v>
+      </c>
+      <c r="J385" s="7">
+        <v>23</v>
+      </c>
+      <c r="K385" s="7">
+        <v>37</v>
+      </c>
+      <c r="L385" s="7">
+        <v>34</v>
+      </c>
+      <c r="M385" s="7">
+        <v>132</v>
+      </c>
+      <c r="N385" s="7">
+        <v>29</v>
+      </c>
+      <c r="O385" s="7">
+        <v>151</v>
+      </c>
+      <c r="P385" s="7">
+        <v>74</v>
+      </c>
+      <c r="Q385" s="7">
+        <v>25</v>
+      </c>
+      <c r="R385" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="386" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A386" s="18"/>
@@ -13267,15 +13915,27 @@
       </c>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
-      <c r="I387" s="7"/>
-      <c r="J387" s="7"/>
-      <c r="K387" s="7"/>
-      <c r="L387" s="7"/>
+      <c r="I387" s="7">
+        <v>3</v>
+      </c>
+      <c r="J387" s="7">
+        <v>6</v>
+      </c>
+      <c r="K387" s="7">
+        <v>8</v>
+      </c>
+      <c r="L387" s="7">
+        <v>6</v>
+      </c>
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
       <c r="O387" s="7"/>
-      <c r="P387" s="7"/>
-      <c r="Q387" s="7"/>
+      <c r="P387" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q387" s="7">
+        <v>1</v>
+      </c>
       <c r="R387" s="7"/>
     </row>
     <row r="388" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -13298,17 +13958,39 @@
         <v>129</v>
       </c>
       <c r="G388" s="7"/>
-      <c r="H388" s="7"/>
-      <c r="I388" s="7"/>
-      <c r="J388" s="7"/>
-      <c r="K388" s="7"/>
-      <c r="L388" s="7"/>
-      <c r="M388" s="7"/>
-      <c r="N388" s="7"/>
-      <c r="O388" s="7"/>
-      <c r="P388" s="7"/>
-      <c r="Q388" s="7"/>
-      <c r="R388" s="7"/>
+      <c r="H388" s="7">
+        <v>1</v>
+      </c>
+      <c r="I388" s="7">
+        <v>6</v>
+      </c>
+      <c r="J388" s="7">
+        <v>8</v>
+      </c>
+      <c r="K388" s="7">
+        <v>17</v>
+      </c>
+      <c r="L388" s="7">
+        <v>24</v>
+      </c>
+      <c r="M388" s="7">
+        <v>18</v>
+      </c>
+      <c r="N388" s="7">
+        <v>1</v>
+      </c>
+      <c r="O388" s="7">
+        <v>16</v>
+      </c>
+      <c r="P388" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q388" s="7">
+        <v>7</v>
+      </c>
+      <c r="R388" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="389" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A389" s="18" t="s">
@@ -13330,16 +14012,34 @@
         <v>130</v>
       </c>
       <c r="G389" s="7"/>
-      <c r="H389" s="7"/>
-      <c r="I389" s="7"/>
-      <c r="J389" s="7"/>
-      <c r="K389" s="7"/>
-      <c r="L389" s="7"/>
-      <c r="M389" s="7"/>
+      <c r="H389" s="7">
+        <v>1</v>
+      </c>
+      <c r="I389" s="7">
+        <v>1</v>
+      </c>
+      <c r="J389" s="7">
+        <v>2</v>
+      </c>
+      <c r="K389" s="7">
+        <v>2</v>
+      </c>
+      <c r="L389" s="7">
+        <v>8</v>
+      </c>
+      <c r="M389" s="7">
+        <v>3</v>
+      </c>
       <c r="N389" s="7"/>
-      <c r="O389" s="7"/>
-      <c r="P389" s="7"/>
-      <c r="Q389" s="7"/>
+      <c r="O389" s="7">
+        <v>7</v>
+      </c>
+      <c r="P389" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q389" s="7">
+        <v>6</v>
+      </c>
       <c r="R389" s="7"/>
     </row>
     <row r="390" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -13362,16 +14062,36 @@
         <v>131</v>
       </c>
       <c r="G390" s="7"/>
-      <c r="H390" s="7"/>
-      <c r="I390" s="7"/>
-      <c r="J390" s="7"/>
-      <c r="K390" s="7"/>
-      <c r="L390" s="7"/>
-      <c r="M390" s="7"/>
-      <c r="N390" s="7"/>
-      <c r="O390" s="7"/>
-      <c r="P390" s="7"/>
-      <c r="Q390" s="7"/>
+      <c r="H390" s="7">
+        <v>1</v>
+      </c>
+      <c r="I390" s="7">
+        <v>11</v>
+      </c>
+      <c r="J390" s="7">
+        <v>18</v>
+      </c>
+      <c r="K390" s="7">
+        <v>20</v>
+      </c>
+      <c r="L390" s="7">
+        <v>18</v>
+      </c>
+      <c r="M390" s="7">
+        <v>23</v>
+      </c>
+      <c r="N390" s="7">
+        <v>4</v>
+      </c>
+      <c r="O390" s="7">
+        <v>32</v>
+      </c>
+      <c r="P390" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q390" s="7">
+        <v>9</v>
+      </c>
       <c r="R390" s="7"/>
     </row>
     <row r="391" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -13394,17 +14114,39 @@
         <v>132</v>
       </c>
       <c r="G391" s="7"/>
-      <c r="H391" s="7"/>
-      <c r="I391" s="7"/>
-      <c r="J391" s="7"/>
-      <c r="K391" s="7"/>
-      <c r="L391" s="7"/>
-      <c r="M391" s="7"/>
-      <c r="N391" s="7"/>
-      <c r="O391" s="7"/>
-      <c r="P391" s="7"/>
-      <c r="Q391" s="7"/>
-      <c r="R391" s="7"/>
+      <c r="H391" s="7">
+        <v>4</v>
+      </c>
+      <c r="I391" s="7">
+        <v>8</v>
+      </c>
+      <c r="J391" s="7">
+        <v>16</v>
+      </c>
+      <c r="K391" s="7">
+        <v>30</v>
+      </c>
+      <c r="L391" s="7">
+        <v>19</v>
+      </c>
+      <c r="M391" s="7">
+        <v>98</v>
+      </c>
+      <c r="N391" s="7">
+        <v>39</v>
+      </c>
+      <c r="O391" s="7">
+        <v>129</v>
+      </c>
+      <c r="P391" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q391" s="7">
+        <v>29</v>
+      </c>
+      <c r="R391" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="392" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A392" s="18"/>
@@ -13447,16 +14189,36 @@
       </c>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
-      <c r="I393" s="7"/>
-      <c r="J393" s="7"/>
-      <c r="K393" s="7"/>
-      <c r="L393" s="7"/>
-      <c r="M393" s="7"/>
-      <c r="N393" s="7"/>
-      <c r="O393" s="7"/>
-      <c r="P393" s="7"/>
-      <c r="Q393" s="7"/>
-      <c r="R393" s="7"/>
+      <c r="I393" s="7">
+        <v>8</v>
+      </c>
+      <c r="J393" s="7">
+        <v>23</v>
+      </c>
+      <c r="K393" s="7">
+        <v>33</v>
+      </c>
+      <c r="L393" s="7">
+        <v>34</v>
+      </c>
+      <c r="M393" s="7">
+        <v>7</v>
+      </c>
+      <c r="N393" s="7">
+        <v>5</v>
+      </c>
+      <c r="O393" s="7">
+        <v>9</v>
+      </c>
+      <c r="P393" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q393" s="7">
+        <v>9</v>
+      </c>
+      <c r="R393" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="394" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A394" s="18" t="s">
@@ -13479,16 +14241,36 @@
       </c>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
-      <c r="I394" s="7"/>
-      <c r="J394" s="7"/>
-      <c r="K394" s="7"/>
-      <c r="L394" s="7"/>
-      <c r="M394" s="7"/>
-      <c r="N394" s="7"/>
-      <c r="O394" s="7"/>
-      <c r="P394" s="7"/>
-      <c r="Q394" s="7"/>
-      <c r="R394" s="7"/>
+      <c r="I394" s="7">
+        <v>7</v>
+      </c>
+      <c r="J394" s="7">
+        <v>26</v>
+      </c>
+      <c r="K394" s="7">
+        <v>32</v>
+      </c>
+      <c r="L394" s="7">
+        <v>54</v>
+      </c>
+      <c r="M394" s="7">
+        <v>119</v>
+      </c>
+      <c r="N394" s="7">
+        <v>64</v>
+      </c>
+      <c r="O394" s="7">
+        <v>128</v>
+      </c>
+      <c r="P394" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q394" s="7">
+        <v>20</v>
+      </c>
+      <c r="R394" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="395" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A395" s="18" t="s">
@@ -13511,16 +14293,36 @@
       </c>
       <c r="G395" s="7"/>
       <c r="H395" s="7"/>
-      <c r="I395" s="7"/>
-      <c r="J395" s="7"/>
-      <c r="K395" s="7"/>
-      <c r="L395" s="7"/>
-      <c r="M395" s="7"/>
-      <c r="N395" s="7"/>
-      <c r="O395" s="7"/>
-      <c r="P395" s="7"/>
-      <c r="Q395" s="7"/>
-      <c r="R395" s="7"/>
+      <c r="I395" s="7">
+        <v>6</v>
+      </c>
+      <c r="J395" s="7">
+        <v>33</v>
+      </c>
+      <c r="K395" s="7">
+        <v>53</v>
+      </c>
+      <c r="L395" s="7">
+        <v>48</v>
+      </c>
+      <c r="M395" s="7">
+        <v>108</v>
+      </c>
+      <c r="N395" s="7">
+        <v>45</v>
+      </c>
+      <c r="O395" s="7">
+        <v>138</v>
+      </c>
+      <c r="P395" s="7">
+        <v>60</v>
+      </c>
+      <c r="Q395" s="7">
+        <v>39</v>
+      </c>
+      <c r="R395" s="7">
+        <v>14</v>
+      </c>
     </row>
     <row r="396" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A396" s="18"/>
@@ -13561,18 +14363,40 @@
       <c r="F397" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G397" s="7"/>
+      <c r="G397" s="7">
+        <v>1</v>
+      </c>
       <c r="H397" s="7"/>
-      <c r="I397" s="7"/>
-      <c r="J397" s="7"/>
-      <c r="K397" s="7"/>
-      <c r="L397" s="7"/>
-      <c r="M397" s="7"/>
-      <c r="N397" s="7"/>
-      <c r="O397" s="7"/>
-      <c r="P397" s="7"/>
-      <c r="Q397" s="7"/>
-      <c r="R397" s="7"/>
+      <c r="I397" s="7">
+        <v>22</v>
+      </c>
+      <c r="J397" s="7">
+        <v>35</v>
+      </c>
+      <c r="K397" s="7">
+        <v>67</v>
+      </c>
+      <c r="L397" s="7">
+        <v>75</v>
+      </c>
+      <c r="M397" s="7">
+        <v>166</v>
+      </c>
+      <c r="N397" s="7">
+        <v>56</v>
+      </c>
+      <c r="O397" s="7">
+        <v>175</v>
+      </c>
+      <c r="P397" s="7">
+        <v>38</v>
+      </c>
+      <c r="Q397" s="7">
+        <v>29</v>
+      </c>
+      <c r="R397" s="7">
+        <v>14</v>
+      </c>
     </row>
     <row r="398" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A398" s="18" t="s">
@@ -13594,17 +14418,39 @@
         <v>177</v>
       </c>
       <c r="G398" s="7"/>
-      <c r="H398" s="7"/>
-      <c r="I398" s="7"/>
-      <c r="J398" s="7"/>
-      <c r="K398" s="7"/>
-      <c r="L398" s="7"/>
-      <c r="M398" s="7"/>
-      <c r="N398" s="7"/>
-      <c r="O398" s="7"/>
-      <c r="P398" s="7"/>
-      <c r="Q398" s="7"/>
-      <c r="R398" s="7"/>
+      <c r="H398" s="7">
+        <v>1</v>
+      </c>
+      <c r="I398" s="7">
+        <v>12</v>
+      </c>
+      <c r="J398" s="7">
+        <v>29</v>
+      </c>
+      <c r="K398" s="7">
+        <v>58</v>
+      </c>
+      <c r="L398" s="7">
+        <v>47</v>
+      </c>
+      <c r="M398" s="7">
+        <v>170</v>
+      </c>
+      <c r="N398" s="7">
+        <v>77</v>
+      </c>
+      <c r="O398" s="7">
+        <v>207</v>
+      </c>
+      <c r="P398" s="7">
+        <v>83</v>
+      </c>
+      <c r="Q398" s="7">
+        <v>26</v>
+      </c>
+      <c r="R398" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="399" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A399" s="18" t="s">
@@ -13627,16 +14473,36 @@
       </c>
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
-      <c r="I399" s="7"/>
-      <c r="J399" s="7"/>
-      <c r="K399" s="7"/>
-      <c r="L399" s="7"/>
-      <c r="M399" s="7"/>
-      <c r="N399" s="7"/>
-      <c r="O399" s="7"/>
-      <c r="P399" s="7"/>
-      <c r="Q399" s="7"/>
-      <c r="R399" s="7"/>
+      <c r="I399" s="7">
+        <v>2</v>
+      </c>
+      <c r="J399" s="7">
+        <v>14</v>
+      </c>
+      <c r="K399" s="7">
+        <v>34</v>
+      </c>
+      <c r="L399" s="7">
+        <v>38</v>
+      </c>
+      <c r="M399" s="7">
+        <v>164</v>
+      </c>
+      <c r="N399" s="7">
+        <v>86</v>
+      </c>
+      <c r="O399" s="7">
+        <v>140</v>
+      </c>
+      <c r="P399" s="7">
+        <v>54</v>
+      </c>
+      <c r="Q399" s="7">
+        <v>23</v>
+      </c>
+      <c r="R399" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="400" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A400" s="18" t="s">
@@ -13659,16 +14525,36 @@
       </c>
       <c r="G400" s="7"/>
       <c r="H400" s="7"/>
-      <c r="I400" s="7"/>
-      <c r="J400" s="7"/>
-      <c r="K400" s="7"/>
-      <c r="L400" s="7"/>
-      <c r="M400" s="7"/>
-      <c r="N400" s="7"/>
-      <c r="O400" s="7"/>
-      <c r="P400" s="7"/>
-      <c r="Q400" s="7"/>
-      <c r="R400" s="7"/>
+      <c r="I400" s="7">
+        <v>6</v>
+      </c>
+      <c r="J400" s="7">
+        <v>7</v>
+      </c>
+      <c r="K400" s="7">
+        <v>16</v>
+      </c>
+      <c r="L400" s="7">
+        <v>18</v>
+      </c>
+      <c r="M400" s="7">
+        <v>104</v>
+      </c>
+      <c r="N400" s="7">
+        <v>26</v>
+      </c>
+      <c r="O400" s="7">
+        <v>85</v>
+      </c>
+      <c r="P400" s="7">
+        <v>32</v>
+      </c>
+      <c r="Q400" s="7">
+        <v>7</v>
+      </c>
+      <c r="R400" s="7">
+        <v>17</v>
+      </c>
     </row>
     <row r="401" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A401" s="18" t="s">
@@ -13690,17 +14576,39 @@
         <v>180</v>
       </c>
       <c r="G401" s="7"/>
-      <c r="H401" s="7"/>
-      <c r="I401" s="7"/>
-      <c r="J401" s="7"/>
-      <c r="K401" s="7"/>
-      <c r="L401" s="7"/>
-      <c r="M401" s="7"/>
-      <c r="N401" s="7"/>
-      <c r="O401" s="7"/>
-      <c r="P401" s="7"/>
-      <c r="Q401" s="7"/>
-      <c r="R401" s="7"/>
+      <c r="H401" s="7">
+        <v>23</v>
+      </c>
+      <c r="I401" s="7">
+        <v>57</v>
+      </c>
+      <c r="J401" s="7">
+        <v>50</v>
+      </c>
+      <c r="K401" s="7">
+        <v>68</v>
+      </c>
+      <c r="L401" s="7">
+        <v>53</v>
+      </c>
+      <c r="M401" s="7">
+        <v>79</v>
+      </c>
+      <c r="N401" s="7">
+        <v>18</v>
+      </c>
+      <c r="O401" s="7">
+        <v>103</v>
+      </c>
+      <c r="P401" s="7">
+        <v>48</v>
+      </c>
+      <c r="Q401" s="7">
+        <v>32</v>
+      </c>
+      <c r="R401" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="402" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A402" s="18" t="s">
@@ -13723,16 +14631,36 @@
       </c>
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
-      <c r="I402" s="7"/>
-      <c r="J402" s="7"/>
-      <c r="K402" s="7"/>
-      <c r="L402" s="7"/>
-      <c r="M402" s="7"/>
-      <c r="N402" s="7"/>
-      <c r="O402" s="7"/>
-      <c r="P402" s="7"/>
-      <c r="Q402" s="7"/>
-      <c r="R402" s="7"/>
+      <c r="I402" s="7">
+        <v>40</v>
+      </c>
+      <c r="J402" s="7">
+        <v>23</v>
+      </c>
+      <c r="K402" s="7">
+        <v>48</v>
+      </c>
+      <c r="L402" s="7">
+        <v>62</v>
+      </c>
+      <c r="M402" s="7">
+        <v>61</v>
+      </c>
+      <c r="N402" s="7">
+        <v>9</v>
+      </c>
+      <c r="O402" s="7">
+        <v>86</v>
+      </c>
+      <c r="P402" s="7">
+        <v>35</v>
+      </c>
+      <c r="Q402" s="7">
+        <v>23</v>
+      </c>
+      <c r="R402" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="403" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A403" s="18" t="s">
@@ -13754,17 +14682,39 @@
         <v>182</v>
       </c>
       <c r="G403" s="7"/>
-      <c r="H403" s="7"/>
-      <c r="I403" s="7"/>
-      <c r="J403" s="7"/>
-      <c r="K403" s="7"/>
-      <c r="L403" s="7"/>
-      <c r="M403" s="7"/>
-      <c r="N403" s="7"/>
-      <c r="O403" s="7"/>
-      <c r="P403" s="7"/>
-      <c r="Q403" s="7"/>
-      <c r="R403" s="7"/>
+      <c r="H403" s="7">
+        <v>2</v>
+      </c>
+      <c r="I403" s="7">
+        <v>26</v>
+      </c>
+      <c r="J403" s="7">
+        <v>47</v>
+      </c>
+      <c r="K403" s="7">
+        <v>69</v>
+      </c>
+      <c r="L403" s="7">
+        <v>89</v>
+      </c>
+      <c r="M403" s="7">
+        <v>60</v>
+      </c>
+      <c r="N403" s="7">
+        <v>36</v>
+      </c>
+      <c r="O403" s="7">
+        <v>90</v>
+      </c>
+      <c r="P403" s="7">
+        <v>43</v>
+      </c>
+      <c r="Q403" s="7">
+        <v>15</v>
+      </c>
+      <c r="R403" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="404" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A404" s="18" t="s">
@@ -13787,16 +14737,36 @@
       </c>
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
-      <c r="I404" s="7"/>
-      <c r="J404" s="7"/>
-      <c r="K404" s="7"/>
-      <c r="L404" s="7"/>
-      <c r="M404" s="7"/>
-      <c r="N404" s="7"/>
-      <c r="O404" s="7"/>
-      <c r="P404" s="7"/>
-      <c r="Q404" s="7"/>
-      <c r="R404" s="7"/>
+      <c r="I404" s="7">
+        <v>28</v>
+      </c>
+      <c r="J404" s="7">
+        <v>32</v>
+      </c>
+      <c r="K404" s="7">
+        <v>46</v>
+      </c>
+      <c r="L404" s="7">
+        <v>50</v>
+      </c>
+      <c r="M404" s="7">
+        <v>26</v>
+      </c>
+      <c r="N404" s="7">
+        <v>18</v>
+      </c>
+      <c r="O404" s="7">
+        <v>29</v>
+      </c>
+      <c r="P404" s="7">
+        <v>17</v>
+      </c>
+      <c r="Q404" s="7">
+        <v>8</v>
+      </c>
+      <c r="R404" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="405" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A405" s="18" t="s">
@@ -13818,17 +14788,39 @@
         <v>184</v>
       </c>
       <c r="G405" s="7"/>
-      <c r="H405" s="7"/>
-      <c r="I405" s="7"/>
-      <c r="J405" s="7"/>
-      <c r="K405" s="7"/>
-      <c r="L405" s="7"/>
-      <c r="M405" s="7"/>
-      <c r="N405" s="7"/>
-      <c r="O405" s="7"/>
-      <c r="P405" s="7"/>
-      <c r="Q405" s="7"/>
-      <c r="R405" s="7"/>
+      <c r="H405" s="7">
+        <v>1</v>
+      </c>
+      <c r="I405" s="7">
+        <v>23</v>
+      </c>
+      <c r="J405" s="7">
+        <v>61</v>
+      </c>
+      <c r="K405" s="7">
+        <v>75</v>
+      </c>
+      <c r="L405" s="7">
+        <v>72</v>
+      </c>
+      <c r="M405" s="7">
+        <v>56</v>
+      </c>
+      <c r="N405" s="7">
+        <v>26</v>
+      </c>
+      <c r="O405" s="7">
+        <v>70</v>
+      </c>
+      <c r="P405" s="7">
+        <v>49</v>
+      </c>
+      <c r="Q405" s="7">
+        <v>40</v>
+      </c>
+      <c r="R405" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="406" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A406" s="18" t="s">
@@ -13850,17 +14842,39 @@
         <v>185</v>
       </c>
       <c r="G406" s="7"/>
-      <c r="H406" s="7"/>
-      <c r="I406" s="7"/>
-      <c r="J406" s="7"/>
-      <c r="K406" s="7"/>
-      <c r="L406" s="7"/>
-      <c r="M406" s="7"/>
-      <c r="N406" s="7"/>
-      <c r="O406" s="7"/>
-      <c r="P406" s="7"/>
-      <c r="Q406" s="7"/>
-      <c r="R406" s="7"/>
+      <c r="H406" s="7">
+        <v>3</v>
+      </c>
+      <c r="I406" s="7">
+        <v>23</v>
+      </c>
+      <c r="J406" s="7">
+        <v>40</v>
+      </c>
+      <c r="K406" s="7">
+        <v>47</v>
+      </c>
+      <c r="L406" s="7">
+        <v>32</v>
+      </c>
+      <c r="M406" s="7">
+        <v>44</v>
+      </c>
+      <c r="N406" s="7">
+        <v>16</v>
+      </c>
+      <c r="O406" s="7">
+        <v>60</v>
+      </c>
+      <c r="P406" s="7">
+        <v>47</v>
+      </c>
+      <c r="Q406" s="7">
+        <v>27</v>
+      </c>
+      <c r="R406" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="407" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A407" s="18" t="s">
@@ -13881,18 +14895,42 @@
       <c r="F407" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G407" s="7"/>
-      <c r="H407" s="7"/>
-      <c r="I407" s="7"/>
-      <c r="J407" s="7"/>
-      <c r="K407" s="7"/>
-      <c r="L407" s="7"/>
-      <c r="M407" s="7"/>
-      <c r="N407" s="7"/>
-      <c r="O407" s="7"/>
-      <c r="P407" s="7"/>
-      <c r="Q407" s="7"/>
-      <c r="R407" s="7"/>
+      <c r="G407" s="7">
+        <v>1</v>
+      </c>
+      <c r="H407" s="7">
+        <v>6</v>
+      </c>
+      <c r="I407" s="7">
+        <v>25</v>
+      </c>
+      <c r="J407" s="7">
+        <v>33</v>
+      </c>
+      <c r="K407" s="7">
+        <v>29</v>
+      </c>
+      <c r="L407" s="7">
+        <v>37</v>
+      </c>
+      <c r="M407" s="7">
+        <v>34</v>
+      </c>
+      <c r="N407" s="7">
+        <v>14</v>
+      </c>
+      <c r="O407" s="7">
+        <v>54</v>
+      </c>
+      <c r="P407" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q407" s="7">
+        <v>9</v>
+      </c>
+      <c r="R407" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="408" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A408" s="18" t="s">
@@ -13914,17 +14952,39 @@
         <v>187</v>
       </c>
       <c r="G408" s="7"/>
-      <c r="H408" s="7"/>
-      <c r="I408" s="7"/>
-      <c r="J408" s="7"/>
-      <c r="K408" s="7"/>
-      <c r="L408" s="7"/>
-      <c r="M408" s="7"/>
-      <c r="N408" s="7"/>
-      <c r="O408" s="7"/>
-      <c r="P408" s="7"/>
-      <c r="Q408" s="7"/>
-      <c r="R408" s="7"/>
+      <c r="H408" s="7">
+        <v>1</v>
+      </c>
+      <c r="I408" s="7">
+        <v>16</v>
+      </c>
+      <c r="J408" s="7">
+        <v>47</v>
+      </c>
+      <c r="K408" s="7">
+        <v>47</v>
+      </c>
+      <c r="L408" s="7">
+        <v>59</v>
+      </c>
+      <c r="M408" s="7">
+        <v>61</v>
+      </c>
+      <c r="N408" s="7">
+        <v>19</v>
+      </c>
+      <c r="O408" s="7">
+        <v>55</v>
+      </c>
+      <c r="P408" s="7">
+        <v>16</v>
+      </c>
+      <c r="Q408" s="7">
+        <v>23</v>
+      </c>
+      <c r="R408" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="409" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A409" s="18" t="s">
@@ -13947,16 +15007,36 @@
       </c>
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
-      <c r="I409" s="7"/>
-      <c r="J409" s="7"/>
-      <c r="K409" s="7"/>
-      <c r="L409" s="7"/>
-      <c r="M409" s="7"/>
-      <c r="N409" s="7"/>
-      <c r="O409" s="7"/>
-      <c r="P409" s="7"/>
-      <c r="Q409" s="7"/>
-      <c r="R409" s="7"/>
+      <c r="I409" s="7">
+        <v>12</v>
+      </c>
+      <c r="J409" s="7">
+        <v>24</v>
+      </c>
+      <c r="K409" s="7">
+        <v>22</v>
+      </c>
+      <c r="L409" s="7">
+        <v>41</v>
+      </c>
+      <c r="M409" s="7">
+        <v>50</v>
+      </c>
+      <c r="N409" s="7">
+        <v>13</v>
+      </c>
+      <c r="O409" s="7">
+        <v>66</v>
+      </c>
+      <c r="P409" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q409" s="7">
+        <v>5</v>
+      </c>
+      <c r="R409" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="410" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A410" s="18" t="s">
@@ -13978,17 +15058,39 @@
         <v>189</v>
       </c>
       <c r="G410" s="7"/>
-      <c r="H410" s="7"/>
-      <c r="I410" s="7"/>
-      <c r="J410" s="7"/>
-      <c r="K410" s="7"/>
-      <c r="L410" s="7"/>
-      <c r="M410" s="7"/>
-      <c r="N410" s="7"/>
-      <c r="O410" s="7"/>
-      <c r="P410" s="7"/>
-      <c r="Q410" s="7"/>
-      <c r="R410" s="7"/>
+      <c r="H410" s="7">
+        <v>1</v>
+      </c>
+      <c r="I410" s="7">
+        <v>17</v>
+      </c>
+      <c r="J410" s="7">
+        <v>32</v>
+      </c>
+      <c r="K410" s="7">
+        <v>26</v>
+      </c>
+      <c r="L410" s="7">
+        <v>23</v>
+      </c>
+      <c r="M410" s="7">
+        <v>72</v>
+      </c>
+      <c r="N410" s="7">
+        <v>9</v>
+      </c>
+      <c r="O410" s="7">
+        <v>64</v>
+      </c>
+      <c r="P410" s="7">
+        <v>19</v>
+      </c>
+      <c r="Q410" s="7">
+        <v>4</v>
+      </c>
+      <c r="R410" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="411" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A411" s="18" t="s">
@@ -14011,15 +15113,33 @@
       </c>
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
-      <c r="I411" s="7"/>
-      <c r="J411" s="7"/>
-      <c r="K411" s="7"/>
-      <c r="L411" s="7"/>
-      <c r="M411" s="7"/>
-      <c r="N411" s="7"/>
-      <c r="O411" s="7"/>
-      <c r="P411" s="7"/>
-      <c r="Q411" s="7"/>
+      <c r="I411" s="7">
+        <v>1</v>
+      </c>
+      <c r="J411" s="7">
+        <v>6</v>
+      </c>
+      <c r="K411" s="7">
+        <v>12</v>
+      </c>
+      <c r="L411" s="7">
+        <v>17</v>
+      </c>
+      <c r="M411" s="7">
+        <v>51</v>
+      </c>
+      <c r="N411" s="7">
+        <v>4</v>
+      </c>
+      <c r="O411" s="7">
+        <v>28</v>
+      </c>
+      <c r="P411" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q411" s="7">
+        <v>8</v>
+      </c>
       <c r="R411" s="7"/>
     </row>
     <row r="412" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -14042,17 +15162,39 @@
         <v>191</v>
       </c>
       <c r="G412" s="7"/>
-      <c r="H412" s="7"/>
-      <c r="I412" s="7"/>
-      <c r="J412" s="7"/>
-      <c r="K412" s="7"/>
-      <c r="L412" s="7"/>
-      <c r="M412" s="7"/>
-      <c r="N412" s="7"/>
-      <c r="O412" s="7"/>
-      <c r="P412" s="7"/>
-      <c r="Q412" s="7"/>
-      <c r="R412" s="7"/>
+      <c r="H412" s="7">
+        <v>1</v>
+      </c>
+      <c r="I412" s="7">
+        <v>27</v>
+      </c>
+      <c r="J412" s="7">
+        <v>46</v>
+      </c>
+      <c r="K412" s="7">
+        <v>66</v>
+      </c>
+      <c r="L412" s="7">
+        <v>99</v>
+      </c>
+      <c r="M412" s="7">
+        <v>58</v>
+      </c>
+      <c r="N412" s="7">
+        <v>29</v>
+      </c>
+      <c r="O412" s="7">
+        <v>97</v>
+      </c>
+      <c r="P412" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q412" s="7">
+        <v>12</v>
+      </c>
+      <c r="R412" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="413" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A413" s="18" t="s">
@@ -14074,17 +15216,39 @@
         <v>192</v>
       </c>
       <c r="G413" s="7"/>
-      <c r="H413" s="7"/>
-      <c r="I413" s="7"/>
-      <c r="J413" s="7"/>
-      <c r="K413" s="7"/>
-      <c r="L413" s="7"/>
-      <c r="M413" s="7"/>
-      <c r="N413" s="7"/>
-      <c r="O413" s="7"/>
-      <c r="P413" s="7"/>
-      <c r="Q413" s="7"/>
-      <c r="R413" s="7"/>
+      <c r="H413" s="7">
+        <v>2</v>
+      </c>
+      <c r="I413" s="7">
+        <v>12</v>
+      </c>
+      <c r="J413" s="7">
+        <v>20</v>
+      </c>
+      <c r="K413" s="7">
+        <v>28</v>
+      </c>
+      <c r="L413" s="7">
+        <v>23</v>
+      </c>
+      <c r="M413" s="7">
+        <v>29</v>
+      </c>
+      <c r="N413" s="7">
+        <v>12</v>
+      </c>
+      <c r="O413" s="7">
+        <v>28</v>
+      </c>
+      <c r="P413" s="7">
+        <v>32</v>
+      </c>
+      <c r="Q413" s="7">
+        <v>13</v>
+      </c>
+      <c r="R413" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="414" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A414" s="18" t="s">
@@ -14106,17 +15270,39 @@
         <v>193</v>
       </c>
       <c r="G414" s="7"/>
-      <c r="H414" s="7"/>
-      <c r="I414" s="7"/>
-      <c r="J414" s="7"/>
-      <c r="K414" s="7"/>
-      <c r="L414" s="7"/>
-      <c r="M414" s="7"/>
-      <c r="N414" s="7"/>
-      <c r="O414" s="7"/>
-      <c r="P414" s="7"/>
-      <c r="Q414" s="7"/>
-      <c r="R414" s="7"/>
+      <c r="H414" s="7">
+        <v>2</v>
+      </c>
+      <c r="I414" s="7">
+        <v>8</v>
+      </c>
+      <c r="J414" s="7">
+        <v>27</v>
+      </c>
+      <c r="K414" s="7">
+        <v>35</v>
+      </c>
+      <c r="L414" s="7">
+        <v>37</v>
+      </c>
+      <c r="M414" s="7">
+        <v>49</v>
+      </c>
+      <c r="N414" s="7">
+        <v>25</v>
+      </c>
+      <c r="O414" s="7">
+        <v>53</v>
+      </c>
+      <c r="P414" s="7">
+        <v>39</v>
+      </c>
+      <c r="Q414" s="7">
+        <v>11</v>
+      </c>
+      <c r="R414" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="415" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A415" s="18" t="s">
@@ -14139,15 +15325,33 @@
       </c>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="7"/>
-      <c r="J415" s="7"/>
-      <c r="K415" s="7"/>
-      <c r="L415" s="7"/>
-      <c r="M415" s="7"/>
-      <c r="N415" s="7"/>
-      <c r="O415" s="7"/>
-      <c r="P415" s="7"/>
-      <c r="Q415" s="7"/>
+      <c r="I415" s="7">
+        <v>8</v>
+      </c>
+      <c r="J415" s="7">
+        <v>15</v>
+      </c>
+      <c r="K415" s="7">
+        <v>27</v>
+      </c>
+      <c r="L415" s="7">
+        <v>25</v>
+      </c>
+      <c r="M415" s="7">
+        <v>18</v>
+      </c>
+      <c r="N415" s="7">
+        <v>7</v>
+      </c>
+      <c r="O415" s="7">
+        <v>20</v>
+      </c>
+      <c r="P415" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q415" s="7">
+        <v>16</v>
+      </c>
       <c r="R415" s="7"/>
     </row>
     <row r="416" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -14170,17 +15374,39 @@
         <v>195</v>
       </c>
       <c r="G416" s="7"/>
-      <c r="H416" s="7"/>
-      <c r="I416" s="7"/>
-      <c r="J416" s="7"/>
-      <c r="K416" s="7"/>
-      <c r="L416" s="7"/>
-      <c r="M416" s="7"/>
-      <c r="N416" s="7"/>
-      <c r="O416" s="7"/>
-      <c r="P416" s="7"/>
-      <c r="Q416" s="7"/>
-      <c r="R416" s="7"/>
+      <c r="H416" s="7">
+        <v>2</v>
+      </c>
+      <c r="I416" s="7">
+        <v>35</v>
+      </c>
+      <c r="J416" s="7">
+        <v>62</v>
+      </c>
+      <c r="K416" s="7">
+        <v>89</v>
+      </c>
+      <c r="L416" s="7">
+        <v>80</v>
+      </c>
+      <c r="M416" s="7">
+        <v>41</v>
+      </c>
+      <c r="N416" s="7">
+        <v>12</v>
+      </c>
+      <c r="O416" s="7">
+        <v>96</v>
+      </c>
+      <c r="P416" s="7">
+        <v>62</v>
+      </c>
+      <c r="Q416" s="7">
+        <v>47</v>
+      </c>
+      <c r="R416" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="417" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A417" s="18" t="s">
@@ -14203,16 +15429,32 @@
       </c>
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
-      <c r="I417" s="7"/>
+      <c r="I417" s="7">
+        <v>1</v>
+      </c>
       <c r="J417" s="7"/>
       <c r="K417" s="7"/>
-      <c r="L417" s="7"/>
-      <c r="M417" s="7"/>
-      <c r="N417" s="7"/>
-      <c r="O417" s="7"/>
-      <c r="P417" s="7"/>
-      <c r="Q417" s="7"/>
-      <c r="R417" s="7"/>
+      <c r="L417" s="7">
+        <v>4</v>
+      </c>
+      <c r="M417" s="7">
+        <v>129</v>
+      </c>
+      <c r="N417" s="7">
+        <v>43</v>
+      </c>
+      <c r="O417" s="7">
+        <v>102</v>
+      </c>
+      <c r="P417" s="7">
+        <v>34</v>
+      </c>
+      <c r="Q417" s="7">
+        <v>3</v>
+      </c>
+      <c r="R417" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="418" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A418" s="18" t="s">
@@ -14235,16 +15477,36 @@
       </c>
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
-      <c r="I418" s="7"/>
-      <c r="J418" s="7"/>
-      <c r="K418" s="7"/>
-      <c r="L418" s="7"/>
-      <c r="M418" s="7"/>
-      <c r="N418" s="7"/>
-      <c r="O418" s="7"/>
-      <c r="P418" s="7"/>
-      <c r="Q418" s="7"/>
-      <c r="R418" s="7"/>
+      <c r="I418" s="7">
+        <v>1</v>
+      </c>
+      <c r="J418" s="7">
+        <v>1</v>
+      </c>
+      <c r="K418" s="7">
+        <v>1</v>
+      </c>
+      <c r="L418" s="7">
+        <v>1</v>
+      </c>
+      <c r="M418" s="7">
+        <v>187</v>
+      </c>
+      <c r="N418" s="7">
+        <v>133</v>
+      </c>
+      <c r="O418" s="7">
+        <v>184</v>
+      </c>
+      <c r="P418" s="7">
+        <v>45</v>
+      </c>
+      <c r="Q418" s="7">
+        <v>9</v>
+      </c>
+      <c r="R418" s="7">
+        <v>25</v>
+      </c>
     </row>
     <row r="419" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A419" s="18" t="s">
@@ -14271,12 +15533,24 @@
       <c r="J419" s="7"/>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
-      <c r="M419" s="7"/>
-      <c r="N419" s="7"/>
-      <c r="O419" s="7"/>
-      <c r="P419" s="7"/>
-      <c r="Q419" s="7"/>
-      <c r="R419" s="7"/>
+      <c r="M419" s="7">
+        <v>132</v>
+      </c>
+      <c r="N419" s="7">
+        <v>18</v>
+      </c>
+      <c r="O419" s="7">
+        <v>40</v>
+      </c>
+      <c r="P419" s="7">
+        <v>12</v>
+      </c>
+      <c r="Q419" s="7">
+        <v>3</v>
+      </c>
+      <c r="R419" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="420" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A420" s="18" t="s">
@@ -14301,14 +15575,30 @@
       <c r="H420" s="7"/>
       <c r="I420" s="7"/>
       <c r="J420" s="7"/>
-      <c r="K420" s="7"/>
-      <c r="L420" s="7"/>
-      <c r="M420" s="7"/>
-      <c r="N420" s="7"/>
-      <c r="O420" s="7"/>
-      <c r="P420" s="7"/>
-      <c r="Q420" s="7"/>
-      <c r="R420" s="7"/>
+      <c r="K420" s="7">
+        <v>1</v>
+      </c>
+      <c r="L420" s="7">
+        <v>9</v>
+      </c>
+      <c r="M420" s="7">
+        <v>232</v>
+      </c>
+      <c r="N420" s="7">
+        <v>120</v>
+      </c>
+      <c r="O420" s="7">
+        <v>218</v>
+      </c>
+      <c r="P420" s="7">
+        <v>66</v>
+      </c>
+      <c r="Q420" s="7">
+        <v>16</v>
+      </c>
+      <c r="R420" s="7">
+        <v>27</v>
+      </c>
     </row>
     <row r="421" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A421" s="18" t="s">
@@ -14330,17 +15620,39 @@
         <v>200</v>
       </c>
       <c r="G421" s="7"/>
-      <c r="H421" s="7"/>
-      <c r="I421" s="7"/>
-      <c r="J421" s="7"/>
-      <c r="K421" s="7"/>
-      <c r="L421" s="7"/>
-      <c r="M421" s="7"/>
-      <c r="N421" s="7"/>
-      <c r="O421" s="7"/>
-      <c r="P421" s="7"/>
-      <c r="Q421" s="7"/>
-      <c r="R421" s="7"/>
+      <c r="H421" s="7">
+        <v>5</v>
+      </c>
+      <c r="I421" s="7">
+        <v>22</v>
+      </c>
+      <c r="J421" s="7">
+        <v>48</v>
+      </c>
+      <c r="K421" s="7">
+        <v>67</v>
+      </c>
+      <c r="L421" s="7">
+        <v>83</v>
+      </c>
+      <c r="M421" s="7">
+        <v>106</v>
+      </c>
+      <c r="N421" s="7">
+        <v>62</v>
+      </c>
+      <c r="O421" s="7">
+        <v>98</v>
+      </c>
+      <c r="P421" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q421" s="7">
+        <v>40</v>
+      </c>
+      <c r="R421" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="422" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A422" s="18" t="s">
@@ -14363,16 +15675,36 @@
       </c>
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
-      <c r="I422" s="7"/>
-      <c r="J422" s="7"/>
-      <c r="K422" s="7"/>
-      <c r="L422" s="7"/>
-      <c r="M422" s="7"/>
-      <c r="N422" s="7"/>
-      <c r="O422" s="7"/>
-      <c r="P422" s="7"/>
-      <c r="Q422" s="7"/>
-      <c r="R422" s="7"/>
+      <c r="I422" s="7">
+        <v>3</v>
+      </c>
+      <c r="J422" s="7">
+        <v>14</v>
+      </c>
+      <c r="K422" s="7">
+        <v>20</v>
+      </c>
+      <c r="L422" s="7">
+        <v>25</v>
+      </c>
+      <c r="M422" s="7">
+        <v>118</v>
+      </c>
+      <c r="N422" s="7">
+        <v>56</v>
+      </c>
+      <c r="O422" s="7">
+        <v>81</v>
+      </c>
+      <c r="P422" s="7">
+        <v>32</v>
+      </c>
+      <c r="Q422" s="7">
+        <v>15</v>
+      </c>
+      <c r="R422" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="423" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A423" s="18" t="s">
@@ -14398,13 +15730,27 @@
       <c r="I423" s="7"/>
       <c r="J423" s="7"/>
       <c r="K423" s="7"/>
-      <c r="L423" s="7"/>
-      <c r="M423" s="7"/>
-      <c r="N423" s="7"/>
-      <c r="O423" s="7"/>
-      <c r="P423" s="7"/>
-      <c r="Q423" s="7"/>
-      <c r="R423" s="7"/>
+      <c r="L423" s="7">
+        <v>5</v>
+      </c>
+      <c r="M423" s="7">
+        <v>191</v>
+      </c>
+      <c r="N423" s="7">
+        <v>74</v>
+      </c>
+      <c r="O423" s="7">
+        <v>149</v>
+      </c>
+      <c r="P423" s="7">
+        <v>37</v>
+      </c>
+      <c r="Q423" s="7">
+        <v>4</v>
+      </c>
+      <c r="R423" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="424" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A424" s="18" t="s">
@@ -14427,16 +15773,36 @@
       </c>
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
-      <c r="I424" s="7"/>
-      <c r="J424" s="7"/>
-      <c r="K424" s="7"/>
-      <c r="L424" s="7"/>
-      <c r="M424" s="7"/>
-      <c r="N424" s="7"/>
-      <c r="O424" s="7"/>
-      <c r="P424" s="7"/>
-      <c r="Q424" s="7"/>
-      <c r="R424" s="7"/>
+      <c r="I424" s="7">
+        <v>8</v>
+      </c>
+      <c r="J424" s="7">
+        <v>13</v>
+      </c>
+      <c r="K424" s="7">
+        <v>24</v>
+      </c>
+      <c r="L424" s="7">
+        <v>22</v>
+      </c>
+      <c r="M424" s="7">
+        <v>127</v>
+      </c>
+      <c r="N424" s="7">
+        <v>67</v>
+      </c>
+      <c r="O424" s="7">
+        <v>99</v>
+      </c>
+      <c r="P424" s="7">
+        <v>32</v>
+      </c>
+      <c r="Q424" s="7">
+        <v>7</v>
+      </c>
+      <c r="R424" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="425" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A425" s="18" t="s">
@@ -14459,16 +15825,36 @@
       </c>
       <c r="G425" s="7"/>
       <c r="H425" s="7"/>
-      <c r="I425" s="7"/>
-      <c r="J425" s="7"/>
-      <c r="K425" s="7"/>
-      <c r="L425" s="7"/>
-      <c r="M425" s="7"/>
-      <c r="N425" s="7"/>
-      <c r="O425" s="7"/>
-      <c r="P425" s="7"/>
-      <c r="Q425" s="7"/>
-      <c r="R425" s="7"/>
+      <c r="I425" s="7">
+        <v>5</v>
+      </c>
+      <c r="J425" s="7">
+        <v>12</v>
+      </c>
+      <c r="K425" s="7">
+        <v>14</v>
+      </c>
+      <c r="L425" s="7">
+        <v>25</v>
+      </c>
+      <c r="M425" s="7">
+        <v>70</v>
+      </c>
+      <c r="N425" s="7">
+        <v>45</v>
+      </c>
+      <c r="O425" s="7">
+        <v>59</v>
+      </c>
+      <c r="P425" s="7">
+        <v>22</v>
+      </c>
+      <c r="Q425" s="7">
+        <v>7</v>
+      </c>
+      <c r="R425" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="426" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A426" s="18" t="s">
@@ -14493,14 +15879,26 @@
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
       <c r="J426" s="7"/>
-      <c r="K426" s="7"/>
+      <c r="K426" s="7">
+        <v>1</v>
+      </c>
       <c r="L426" s="7"/>
-      <c r="M426" s="7"/>
-      <c r="N426" s="7"/>
-      <c r="O426" s="7"/>
-      <c r="P426" s="7"/>
+      <c r="M426" s="7">
+        <v>96</v>
+      </c>
+      <c r="N426" s="7">
+        <v>20</v>
+      </c>
+      <c r="O426" s="7">
+        <v>28</v>
+      </c>
+      <c r="P426" s="7">
+        <v>5</v>
+      </c>
       <c r="Q426" s="7"/>
-      <c r="R426" s="7"/>
+      <c r="R426" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="427" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A427" s="18" t="s">
@@ -14526,13 +15924,27 @@
       <c r="I427" s="7"/>
       <c r="J427" s="7"/>
       <c r="K427" s="7"/>
-      <c r="L427" s="7"/>
-      <c r="M427" s="7"/>
-      <c r="N427" s="7"/>
-      <c r="O427" s="7"/>
-      <c r="P427" s="7"/>
-      <c r="Q427" s="7"/>
-      <c r="R427" s="7"/>
+      <c r="L427" s="7">
+        <v>1</v>
+      </c>
+      <c r="M427" s="7">
+        <v>216</v>
+      </c>
+      <c r="N427" s="7">
+        <v>104</v>
+      </c>
+      <c r="O427" s="7">
+        <v>209</v>
+      </c>
+      <c r="P427" s="7">
+        <v>69</v>
+      </c>
+      <c r="Q427" s="7">
+        <v>4</v>
+      </c>
+      <c r="R427" s="7">
+        <v>33</v>
+      </c>
     </row>
     <row r="428" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A428" s="18" t="s">
@@ -14555,16 +15967,36 @@
       </c>
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
-      <c r="I428" s="7"/>
-      <c r="J428" s="7"/>
-      <c r="K428" s="7"/>
-      <c r="L428" s="7"/>
-      <c r="M428" s="7"/>
-      <c r="N428" s="7"/>
-      <c r="O428" s="7"/>
-      <c r="P428" s="7"/>
-      <c r="Q428" s="7"/>
-      <c r="R428" s="7"/>
+      <c r="I428" s="7">
+        <v>12</v>
+      </c>
+      <c r="J428" s="7">
+        <v>27</v>
+      </c>
+      <c r="K428" s="7">
+        <v>34</v>
+      </c>
+      <c r="L428" s="7">
+        <v>24</v>
+      </c>
+      <c r="M428" s="7">
+        <v>93</v>
+      </c>
+      <c r="N428" s="7">
+        <v>27</v>
+      </c>
+      <c r="O428" s="7">
+        <v>71</v>
+      </c>
+      <c r="P428" s="7">
+        <v>25</v>
+      </c>
+      <c r="Q428" s="7">
+        <v>8</v>
+      </c>
+      <c r="R428" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="429" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A429" s="18" t="s">
@@ -14589,14 +16021,30 @@
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
       <c r="J429" s="7"/>
-      <c r="K429" s="7"/>
-      <c r="L429" s="7"/>
-      <c r="M429" s="7"/>
-      <c r="N429" s="7"/>
-      <c r="O429" s="7"/>
-      <c r="P429" s="7"/>
-      <c r="Q429" s="7"/>
-      <c r="R429" s="7"/>
+      <c r="K429" s="7">
+        <v>1</v>
+      </c>
+      <c r="L429" s="7">
+        <v>3</v>
+      </c>
+      <c r="M429" s="7">
+        <v>247</v>
+      </c>
+      <c r="N429" s="7">
+        <v>102</v>
+      </c>
+      <c r="O429" s="7">
+        <v>164</v>
+      </c>
+      <c r="P429" s="7">
+        <v>48</v>
+      </c>
+      <c r="Q429" s="7">
+        <v>5</v>
+      </c>
+      <c r="R429" s="7">
+        <v>24</v>
+      </c>
     </row>
     <row r="430" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A430" s="18" t="s">
@@ -14618,17 +16066,39 @@
         <v>209</v>
       </c>
       <c r="G430" s="7"/>
-      <c r="H430" s="7"/>
-      <c r="I430" s="7"/>
-      <c r="J430" s="7"/>
-      <c r="K430" s="7"/>
-      <c r="L430" s="7"/>
-      <c r="M430" s="7"/>
-      <c r="N430" s="7"/>
-      <c r="O430" s="7"/>
-      <c r="P430" s="7"/>
-      <c r="Q430" s="7"/>
-      <c r="R430" s="7"/>
+      <c r="H430" s="7">
+        <v>7</v>
+      </c>
+      <c r="I430" s="7">
+        <v>15</v>
+      </c>
+      <c r="J430" s="7">
+        <v>25</v>
+      </c>
+      <c r="K430" s="7">
+        <v>29</v>
+      </c>
+      <c r="L430" s="7">
+        <v>28</v>
+      </c>
+      <c r="M430" s="7">
+        <v>233</v>
+      </c>
+      <c r="N430" s="7">
+        <v>109</v>
+      </c>
+      <c r="O430" s="7">
+        <v>141</v>
+      </c>
+      <c r="P430" s="7">
+        <v>51</v>
+      </c>
+      <c r="Q430" s="7">
+        <v>12</v>
+      </c>
+      <c r="R430" s="7">
+        <v>43</v>
+      </c>
     </row>
     <row r="431" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EFA916-E90B-4ACF-B110-9B32DF2C7EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41E020-8D97-46D8-AD63-CCC1653ED131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H399" sqref="H399"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M673" sqref="M673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,17 +7194,39 @@
         <v>54</v>
       </c>
       <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="7"/>
-      <c r="R189" s="7"/>
+      <c r="H189" s="7">
+        <v>1</v>
+      </c>
+      <c r="I189" s="7">
+        <v>12</v>
+      </c>
+      <c r="J189" s="7">
+        <v>36</v>
+      </c>
+      <c r="K189" s="7">
+        <v>61</v>
+      </c>
+      <c r="L189" s="7">
+        <v>76</v>
+      </c>
+      <c r="M189" s="7">
+        <v>74</v>
+      </c>
+      <c r="N189" s="7">
+        <v>25</v>
+      </c>
+      <c r="O189" s="7">
+        <v>100</v>
+      </c>
+      <c r="P189" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q189" s="7">
+        <v>46</v>
+      </c>
+      <c r="R189" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="190" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
@@ -7226,16 +7248,36 @@
         <v>55</v>
       </c>
       <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="7"/>
+      <c r="H190" s="7">
+        <v>2</v>
+      </c>
+      <c r="I190" s="7">
+        <v>14</v>
+      </c>
+      <c r="J190" s="7">
+        <v>34</v>
+      </c>
+      <c r="K190" s="7">
+        <v>29</v>
+      </c>
+      <c r="L190" s="7">
+        <v>32</v>
+      </c>
+      <c r="M190" s="7">
+        <v>5</v>
+      </c>
+      <c r="N190" s="7">
+        <v>3</v>
+      </c>
+      <c r="O190" s="7">
+        <v>3</v>
+      </c>
+      <c r="P190" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q190" s="7">
+        <v>22</v>
+      </c>
       <c r="R190" s="7"/>
     </row>
     <row r="191" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -7374,17 +7416,39 @@
         <v>82</v>
       </c>
       <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="7"/>
-      <c r="L195" s="7"/>
-      <c r="M195" s="7"/>
-      <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="7"/>
-      <c r="Q195" s="7"/>
-      <c r="R195" s="7"/>
+      <c r="H195" s="7">
+        <v>1</v>
+      </c>
+      <c r="I195" s="7">
+        <v>13</v>
+      </c>
+      <c r="J195" s="7">
+        <v>39</v>
+      </c>
+      <c r="K195" s="7">
+        <v>19</v>
+      </c>
+      <c r="L195" s="7">
+        <v>40</v>
+      </c>
+      <c r="M195" s="7">
+        <v>130</v>
+      </c>
+      <c r="N195" s="7">
+        <v>39</v>
+      </c>
+      <c r="O195" s="7">
+        <v>176</v>
+      </c>
+      <c r="P195" s="7">
+        <v>97</v>
+      </c>
+      <c r="Q195" s="7">
+        <v>29</v>
+      </c>
+      <c r="R195" s="7">
+        <v>18</v>
+      </c>
     </row>
     <row r="196" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
@@ -7443,10 +7507,18 @@
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="7"/>
-      <c r="M197" s="7"/>
-      <c r="N197" s="7"/>
-      <c r="O197" s="7"/>
-      <c r="P197" s="7"/>
+      <c r="M197" s="7">
+        <v>4</v>
+      </c>
+      <c r="N197" s="7">
+        <v>3</v>
+      </c>
+      <c r="O197" s="7">
+        <v>6</v>
+      </c>
+      <c r="P197" s="7">
+        <v>1</v>
+      </c>
       <c r="Q197" s="7"/>
       <c r="R197" s="7"/>
     </row>
@@ -7502,17 +7574,39 @@
         <v>86</v>
       </c>
       <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
-      <c r="K199" s="7"/>
-      <c r="L199" s="7"/>
-      <c r="M199" s="7"/>
-      <c r="N199" s="7"/>
-      <c r="O199" s="7"/>
-      <c r="P199" s="7"/>
-      <c r="Q199" s="7"/>
-      <c r="R199" s="7"/>
+      <c r="H199" s="7">
+        <v>4</v>
+      </c>
+      <c r="I199" s="7">
+        <v>32</v>
+      </c>
+      <c r="J199" s="7">
+        <v>35</v>
+      </c>
+      <c r="K199" s="7">
+        <v>44</v>
+      </c>
+      <c r="L199" s="7">
+        <v>27</v>
+      </c>
+      <c r="M199" s="7">
+        <v>9</v>
+      </c>
+      <c r="N199" s="7">
+        <v>3</v>
+      </c>
+      <c r="O199" s="7">
+        <v>15</v>
+      </c>
+      <c r="P199" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q199" s="7">
+        <v>7</v>
+      </c>
+      <c r="R199" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="200" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
@@ -7566,17 +7660,39 @@
         <v>88</v>
       </c>
       <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
-      <c r="R201" s="7"/>
+      <c r="H201" s="7">
+        <v>2</v>
+      </c>
+      <c r="I201" s="7">
+        <v>16</v>
+      </c>
+      <c r="J201" s="7">
+        <v>44</v>
+      </c>
+      <c r="K201" s="7">
+        <v>75</v>
+      </c>
+      <c r="L201" s="7">
+        <v>71</v>
+      </c>
+      <c r="M201" s="7">
+        <v>64</v>
+      </c>
+      <c r="N201" s="7">
+        <v>12</v>
+      </c>
+      <c r="O201" s="7">
+        <v>95</v>
+      </c>
+      <c r="P201" s="7">
+        <v>79</v>
+      </c>
+      <c r="Q201" s="7">
+        <v>35</v>
+      </c>
+      <c r="R201" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="202" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
@@ -7599,16 +7715,34 @@
       </c>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
-      <c r="I202" s="7"/>
+      <c r="I202" s="7">
+        <v>2</v>
+      </c>
       <c r="J202" s="7"/>
-      <c r="K202" s="7"/>
-      <c r="L202" s="7"/>
-      <c r="M202" s="7"/>
-      <c r="N202" s="7"/>
-      <c r="O202" s="7"/>
-      <c r="P202" s="7"/>
-      <c r="Q202" s="7"/>
-      <c r="R202" s="7"/>
+      <c r="K202" s="7">
+        <v>1</v>
+      </c>
+      <c r="L202" s="7">
+        <v>2</v>
+      </c>
+      <c r="M202" s="7">
+        <v>59</v>
+      </c>
+      <c r="N202" s="7">
+        <v>12</v>
+      </c>
+      <c r="O202" s="7">
+        <v>75</v>
+      </c>
+      <c r="P202" s="7">
+        <v>26</v>
+      </c>
+      <c r="Q202" s="7">
+        <v>1</v>
+      </c>
+      <c r="R202" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
@@ -7630,17 +7764,39 @@
         <v>90</v>
       </c>
       <c r="G203" s="7"/>
-      <c r="H203" s="7"/>
-      <c r="I203" s="7"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
-      <c r="L203" s="7"/>
-      <c r="M203" s="7"/>
-      <c r="N203" s="7"/>
-      <c r="O203" s="7"/>
-      <c r="P203" s="7"/>
-      <c r="Q203" s="7"/>
-      <c r="R203" s="7"/>
+      <c r="H203" s="7">
+        <v>5</v>
+      </c>
+      <c r="I203" s="7">
+        <v>7</v>
+      </c>
+      <c r="J203" s="7">
+        <v>32</v>
+      </c>
+      <c r="K203" s="7">
+        <v>37</v>
+      </c>
+      <c r="L203" s="7">
+        <v>36</v>
+      </c>
+      <c r="M203" s="7">
+        <v>58</v>
+      </c>
+      <c r="N203" s="7">
+        <v>37</v>
+      </c>
+      <c r="O203" s="7">
+        <v>106</v>
+      </c>
+      <c r="P203" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q203" s="7">
+        <v>13</v>
+      </c>
+      <c r="R203" s="7">
+        <v>9</v>
+      </c>
     </row>
     <row r="204" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
@@ -7665,14 +7821,30 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
-      <c r="L204" s="7"/>
-      <c r="M204" s="7"/>
-      <c r="N204" s="7"/>
-      <c r="O204" s="7"/>
-      <c r="P204" s="7"/>
-      <c r="Q204" s="7"/>
-      <c r="R204" s="7"/>
+      <c r="K204" s="7">
+        <v>1</v>
+      </c>
+      <c r="L204" s="7">
+        <v>6</v>
+      </c>
+      <c r="M204" s="7">
+        <v>145</v>
+      </c>
+      <c r="N204" s="7">
+        <v>40</v>
+      </c>
+      <c r="O204" s="7">
+        <v>162</v>
+      </c>
+      <c r="P204" s="7">
+        <v>46</v>
+      </c>
+      <c r="Q204" s="7">
+        <v>12</v>
+      </c>
+      <c r="R204" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="205" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
@@ -7731,12 +7903,24 @@
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
       <c r="L206" s="7"/>
-      <c r="M206" s="7"/>
-      <c r="N206" s="7"/>
-      <c r="O206" s="7"/>
-      <c r="P206" s="7"/>
-      <c r="Q206" s="7"/>
-      <c r="R206" s="7"/>
+      <c r="M206" s="7">
+        <v>18</v>
+      </c>
+      <c r="N206" s="7">
+        <v>8</v>
+      </c>
+      <c r="O206" s="7">
+        <v>41</v>
+      </c>
+      <c r="P206" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q206" s="7">
+        <v>1</v>
+      </c>
+      <c r="R206" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="207" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -7758,17 +7942,39 @@
         <v>94</v>
       </c>
       <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
-      <c r="I207" s="7"/>
-      <c r="J207" s="7"/>
-      <c r="K207" s="7"/>
-      <c r="L207" s="7"/>
-      <c r="M207" s="7"/>
-      <c r="N207" s="7"/>
-      <c r="O207" s="7"/>
-      <c r="P207" s="7"/>
-      <c r="Q207" s="7"/>
-      <c r="R207" s="7"/>
+      <c r="H207" s="7">
+        <v>2</v>
+      </c>
+      <c r="I207" s="7">
+        <v>37</v>
+      </c>
+      <c r="J207" s="7">
+        <v>26</v>
+      </c>
+      <c r="K207" s="7">
+        <v>43</v>
+      </c>
+      <c r="L207" s="7">
+        <v>53</v>
+      </c>
+      <c r="M207" s="7">
+        <v>89</v>
+      </c>
+      <c r="N207" s="7">
+        <v>34</v>
+      </c>
+      <c r="O207" s="7">
+        <v>131</v>
+      </c>
+      <c r="P207" s="7">
+        <v>76</v>
+      </c>
+      <c r="Q207" s="7">
+        <v>11</v>
+      </c>
+      <c r="R207" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="208" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
@@ -7789,18 +7995,42 @@
       <c r="F208" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G208" s="7"/>
-      <c r="H208" s="7"/>
-      <c r="I208" s="7"/>
-      <c r="J208" s="7"/>
-      <c r="K208" s="7"/>
-      <c r="L208" s="7"/>
-      <c r="M208" s="7"/>
-      <c r="N208" s="7"/>
-      <c r="O208" s="7"/>
-      <c r="P208" s="7"/>
-      <c r="Q208" s="7"/>
-      <c r="R208" s="7"/>
+      <c r="G208" s="7">
+        <v>1</v>
+      </c>
+      <c r="H208" s="7">
+        <v>3</v>
+      </c>
+      <c r="I208" s="7">
+        <v>23</v>
+      </c>
+      <c r="J208" s="7">
+        <v>26</v>
+      </c>
+      <c r="K208" s="7">
+        <v>35</v>
+      </c>
+      <c r="L208" s="7">
+        <v>54</v>
+      </c>
+      <c r="M208" s="7">
+        <v>131</v>
+      </c>
+      <c r="N208" s="7">
+        <v>57</v>
+      </c>
+      <c r="O208" s="7">
+        <v>197</v>
+      </c>
+      <c r="P208" s="7">
+        <v>122</v>
+      </c>
+      <c r="Q208" s="7">
+        <v>32</v>
+      </c>
+      <c r="R208" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="209" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
@@ -7823,16 +8053,36 @@
       </c>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
-      <c r="I209" s="7"/>
-      <c r="J209" s="7"/>
-      <c r="K209" s="7"/>
-      <c r="L209" s="7"/>
-      <c r="M209" s="7"/>
-      <c r="N209" s="7"/>
-      <c r="O209" s="7"/>
-      <c r="P209" s="7"/>
-      <c r="Q209" s="7"/>
-      <c r="R209" s="7"/>
+      <c r="I209" s="7">
+        <v>13</v>
+      </c>
+      <c r="J209" s="7">
+        <v>30</v>
+      </c>
+      <c r="K209" s="7">
+        <v>30</v>
+      </c>
+      <c r="L209" s="7">
+        <v>35</v>
+      </c>
+      <c r="M209" s="7">
+        <v>96</v>
+      </c>
+      <c r="N209" s="7">
+        <v>27</v>
+      </c>
+      <c r="O209" s="7">
+        <v>144</v>
+      </c>
+      <c r="P209" s="7">
+        <v>70</v>
+      </c>
+      <c r="Q209" s="7">
+        <v>23</v>
+      </c>
+      <c r="R209" s="7">
+        <v>12</v>
+      </c>
     </row>
     <row r="210" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
@@ -8074,16 +8324,36 @@
         <v>131</v>
       </c>
       <c r="G218" s="7"/>
-      <c r="H218" s="7"/>
-      <c r="I218" s="7"/>
-      <c r="J218" s="7"/>
-      <c r="K218" s="7"/>
-      <c r="L218" s="7"/>
-      <c r="M218" s="7"/>
-      <c r="N218" s="7"/>
-      <c r="O218" s="7"/>
-      <c r="P218" s="7"/>
-      <c r="Q218" s="7"/>
+      <c r="H218" s="7">
+        <v>2</v>
+      </c>
+      <c r="I218" s="7">
+        <v>9</v>
+      </c>
+      <c r="J218" s="7">
+        <v>19</v>
+      </c>
+      <c r="K218" s="7">
+        <v>20</v>
+      </c>
+      <c r="L218" s="7">
+        <v>19</v>
+      </c>
+      <c r="M218" s="7">
+        <v>18</v>
+      </c>
+      <c r="N218" s="7">
+        <v>5</v>
+      </c>
+      <c r="O218" s="7">
+        <v>32</v>
+      </c>
+      <c r="P218" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q218" s="7">
+        <v>11</v>
+      </c>
       <c r="R218" s="7"/>
     </row>
     <row r="219" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -8105,18 +8375,42 @@
       <c r="F219" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7"/>
-      <c r="I219" s="7"/>
-      <c r="J219" s="7"/>
-      <c r="K219" s="7"/>
-      <c r="L219" s="7"/>
-      <c r="M219" s="7"/>
-      <c r="N219" s="7"/>
-      <c r="O219" s="7"/>
-      <c r="P219" s="7"/>
-      <c r="Q219" s="7"/>
-      <c r="R219" s="7"/>
+      <c r="G219" s="7">
+        <v>2</v>
+      </c>
+      <c r="H219" s="7">
+        <v>3</v>
+      </c>
+      <c r="I219" s="7">
+        <v>8</v>
+      </c>
+      <c r="J219" s="7">
+        <v>17</v>
+      </c>
+      <c r="K219" s="7">
+        <v>30</v>
+      </c>
+      <c r="L219" s="7">
+        <v>18</v>
+      </c>
+      <c r="M219" s="7">
+        <v>90</v>
+      </c>
+      <c r="N219" s="7">
+        <v>32</v>
+      </c>
+      <c r="O219" s="7">
+        <v>114</v>
+      </c>
+      <c r="P219" s="7">
+        <v>74</v>
+      </c>
+      <c r="Q219" s="7">
+        <v>36</v>
+      </c>
+      <c r="R219" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="220" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
@@ -8191,16 +8485,36 @@
       </c>
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
-      <c r="I222" s="7"/>
-      <c r="J222" s="7"/>
-      <c r="K222" s="7"/>
-      <c r="L222" s="7"/>
-      <c r="M222" s="7"/>
-      <c r="N222" s="7"/>
-      <c r="O222" s="7"/>
-      <c r="P222" s="7"/>
-      <c r="Q222" s="7"/>
-      <c r="R222" s="7"/>
+      <c r="I222" s="7">
+        <v>8</v>
+      </c>
+      <c r="J222" s="7">
+        <v>30</v>
+      </c>
+      <c r="K222" s="7">
+        <v>39</v>
+      </c>
+      <c r="L222" s="7">
+        <v>47</v>
+      </c>
+      <c r="M222" s="7">
+        <v>109</v>
+      </c>
+      <c r="N222" s="7">
+        <v>36</v>
+      </c>
+      <c r="O222" s="7">
+        <v>127</v>
+      </c>
+      <c r="P222" s="7">
+        <v>77</v>
+      </c>
+      <c r="Q222" s="7">
+        <v>27</v>
+      </c>
+      <c r="R222" s="7">
+        <v>8</v>
+      </c>
     </row>
     <row r="223" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
@@ -8222,17 +8536,39 @@
         <v>138</v>
       </c>
       <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-      <c r="I223" s="7"/>
-      <c r="J223" s="7"/>
-      <c r="K223" s="7"/>
-      <c r="L223" s="7"/>
-      <c r="M223" s="7"/>
-      <c r="N223" s="7"/>
-      <c r="O223" s="7"/>
-      <c r="P223" s="7"/>
-      <c r="Q223" s="7"/>
-      <c r="R223" s="7"/>
+      <c r="H223" s="7">
+        <v>2</v>
+      </c>
+      <c r="I223" s="7">
+        <v>13</v>
+      </c>
+      <c r="J223" s="7">
+        <v>35</v>
+      </c>
+      <c r="K223" s="7">
+        <v>51</v>
+      </c>
+      <c r="L223" s="7">
+        <v>55</v>
+      </c>
+      <c r="M223" s="7">
+        <v>87</v>
+      </c>
+      <c r="N223" s="7">
+        <v>28</v>
+      </c>
+      <c r="O223" s="7">
+        <v>123</v>
+      </c>
+      <c r="P223" s="7">
+        <v>77</v>
+      </c>
+      <c r="Q223" s="7">
+        <v>35</v>
+      </c>
+      <c r="R223" s="7">
+        <v>13</v>
+      </c>
     </row>
     <row r="224" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
@@ -12026,39 +12362,17 @@
         <v>19</v>
       </c>
       <c r="G346" s="7"/>
-      <c r="H346" s="7">
-        <v>1</v>
-      </c>
-      <c r="I346" s="7">
-        <v>9</v>
-      </c>
-      <c r="J346" s="7">
-        <v>29</v>
-      </c>
-      <c r="K346" s="7">
-        <v>32</v>
-      </c>
-      <c r="L346" s="7">
-        <v>36</v>
-      </c>
-      <c r="M346" s="7">
-        <v>22</v>
-      </c>
-      <c r="N346" s="7">
-        <v>7</v>
-      </c>
-      <c r="O346" s="7">
-        <v>30</v>
-      </c>
-      <c r="P346" s="7">
-        <v>32</v>
-      </c>
-      <c r="Q346" s="7">
-        <v>29</v>
-      </c>
-      <c r="R346" s="7">
-        <v>3</v>
-      </c>
+      <c r="H346" s="7"/>
+      <c r="I346" s="7"/>
+      <c r="J346" s="7"/>
+      <c r="K346" s="7"/>
+      <c r="L346" s="7"/>
+      <c r="M346" s="7"/>
+      <c r="N346" s="7"/>
+      <c r="O346" s="7"/>
+      <c r="P346" s="7"/>
+      <c r="Q346" s="7"/>
+      <c r="R346" s="7"/>
     </row>
     <row r="347" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A347" s="18" t="s">
@@ -12082,33 +12396,15 @@
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
-      <c r="J347" s="7">
-        <v>6</v>
-      </c>
-      <c r="K347" s="7">
-        <v>9</v>
-      </c>
-      <c r="L347" s="7">
-        <v>16</v>
-      </c>
-      <c r="M347" s="7">
-        <v>8</v>
-      </c>
-      <c r="N347" s="7">
-        <v>1</v>
-      </c>
-      <c r="O347" s="7">
-        <v>11</v>
-      </c>
-      <c r="P347" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q347" s="7">
-        <v>2</v>
-      </c>
-      <c r="R347" s="7">
-        <v>3</v>
-      </c>
+      <c r="J347" s="7"/>
+      <c r="K347" s="7"/>
+      <c r="L347" s="7"/>
+      <c r="M347" s="7"/>
+      <c r="N347" s="7"/>
+      <c r="O347" s="7"/>
+      <c r="P347" s="7"/>
+      <c r="Q347" s="7"/>
+      <c r="R347" s="7"/>
     </row>
     <row r="348" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A348" s="18" t="s">
@@ -12131,36 +12427,16 @@
       </c>
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
-      <c r="I348" s="7">
-        <v>5</v>
-      </c>
-      <c r="J348" s="7">
-        <v>7</v>
-      </c>
-      <c r="K348" s="7">
-        <v>6</v>
-      </c>
-      <c r="L348" s="7">
-        <v>8</v>
-      </c>
-      <c r="M348" s="7">
-        <v>8</v>
-      </c>
-      <c r="N348" s="7">
-        <v>2</v>
-      </c>
-      <c r="O348" s="7">
-        <v>14</v>
-      </c>
-      <c r="P348" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q348" s="7">
-        <v>7</v>
-      </c>
-      <c r="R348" s="7">
-        <v>1</v>
-      </c>
+      <c r="I348" s="7"/>
+      <c r="J348" s="7"/>
+      <c r="K348" s="7"/>
+      <c r="L348" s="7"/>
+      <c r="M348" s="7"/>
+      <c r="N348" s="7"/>
+      <c r="O348" s="7"/>
+      <c r="P348" s="7"/>
+      <c r="Q348" s="7"/>
+      <c r="R348" s="7"/>
     </row>
     <row r="349" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A349" s="18" t="s">
@@ -12183,36 +12459,16 @@
       </c>
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
-      <c r="I349" s="7">
-        <v>4</v>
-      </c>
-      <c r="J349" s="7">
-        <v>6</v>
-      </c>
-      <c r="K349" s="7">
-        <v>11</v>
-      </c>
-      <c r="L349" s="7">
-        <v>7</v>
-      </c>
-      <c r="M349" s="7">
-        <v>16</v>
-      </c>
-      <c r="N349" s="7">
-        <v>6</v>
-      </c>
-      <c r="O349" s="7">
-        <v>16</v>
-      </c>
-      <c r="P349" s="7">
-        <v>9</v>
-      </c>
-      <c r="Q349" s="7">
-        <v>2</v>
-      </c>
-      <c r="R349" s="7">
-        <v>1</v>
-      </c>
+      <c r="I349" s="7"/>
+      <c r="J349" s="7"/>
+      <c r="K349" s="7"/>
+      <c r="L349" s="7"/>
+      <c r="M349" s="7"/>
+      <c r="N349" s="7"/>
+      <c r="O349" s="7"/>
+      <c r="P349" s="7"/>
+      <c r="Q349" s="7"/>
+      <c r="R349" s="7"/>
     </row>
     <row r="350" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A350" s="18" t="s">
@@ -12235,36 +12491,16 @@
       </c>
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
-      <c r="I350" s="7">
-        <v>2</v>
-      </c>
-      <c r="J350" s="7">
-        <v>8</v>
-      </c>
-      <c r="K350" s="7">
-        <v>17</v>
-      </c>
-      <c r="L350" s="7">
-        <v>6</v>
-      </c>
-      <c r="M350" s="7">
-        <v>11</v>
-      </c>
-      <c r="N350" s="7">
-        <v>7</v>
-      </c>
-      <c r="O350" s="7">
-        <v>8</v>
-      </c>
-      <c r="P350" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q350" s="7">
-        <v>4</v>
-      </c>
-      <c r="R350" s="7">
-        <v>1</v>
-      </c>
+      <c r="I350" s="7"/>
+      <c r="J350" s="7"/>
+      <c r="K350" s="7"/>
+      <c r="L350" s="7"/>
+      <c r="M350" s="7"/>
+      <c r="N350" s="7"/>
+      <c r="O350" s="7"/>
+      <c r="P350" s="7"/>
+      <c r="Q350" s="7"/>
+      <c r="R350" s="7"/>
     </row>
     <row r="351" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A351" s="18" t="s">
@@ -12286,36 +12522,16 @@
         <v>22</v>
       </c>
       <c r="G351" s="7"/>
-      <c r="H351" s="7">
-        <v>2</v>
-      </c>
-      <c r="I351" s="7">
-        <v>6</v>
-      </c>
-      <c r="J351" s="7">
-        <v>25</v>
-      </c>
-      <c r="K351" s="7">
-        <v>24</v>
-      </c>
-      <c r="L351" s="7">
-        <v>28</v>
-      </c>
-      <c r="M351" s="7">
-        <v>1</v>
-      </c>
-      <c r="N351" s="7">
-        <v>1</v>
-      </c>
-      <c r="O351" s="7">
-        <v>2</v>
-      </c>
-      <c r="P351" s="7">
-        <v>12</v>
-      </c>
-      <c r="Q351" s="7">
-        <v>3</v>
-      </c>
+      <c r="H351" s="7"/>
+      <c r="I351" s="7"/>
+      <c r="J351" s="7"/>
+      <c r="K351" s="7"/>
+      <c r="L351" s="7"/>
+      <c r="M351" s="7"/>
+      <c r="N351" s="7"/>
+      <c r="O351" s="7"/>
+      <c r="P351" s="7"/>
+      <c r="Q351" s="7"/>
       <c r="R351" s="7"/>
     </row>
     <row r="352" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12339,36 +12555,16 @@
       </c>
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
-      <c r="I352" s="7">
-        <v>3</v>
-      </c>
-      <c r="J352" s="7">
-        <v>15</v>
-      </c>
-      <c r="K352" s="7">
-        <v>17</v>
-      </c>
-      <c r="L352" s="7">
-        <v>20</v>
-      </c>
-      <c r="M352" s="7">
-        <v>104</v>
-      </c>
-      <c r="N352" s="7">
-        <v>48</v>
-      </c>
-      <c r="O352" s="7">
-        <v>79</v>
-      </c>
-      <c r="P352" s="7">
-        <v>39</v>
-      </c>
-      <c r="Q352" s="7">
-        <v>7</v>
-      </c>
-      <c r="R352" s="7">
-        <v>13</v>
-      </c>
+      <c r="I352" s="7"/>
+      <c r="J352" s="7"/>
+      <c r="K352" s="7"/>
+      <c r="L352" s="7"/>
+      <c r="M352" s="7"/>
+      <c r="N352" s="7"/>
+      <c r="O352" s="7"/>
+      <c r="P352" s="7"/>
+      <c r="Q352" s="7"/>
+      <c r="R352" s="7"/>
     </row>
     <row r="353" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A353" s="18" t="s">
@@ -12391,36 +12587,16 @@
       </c>
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
-      <c r="I353" s="7">
-        <v>5</v>
-      </c>
-      <c r="J353" s="7">
-        <v>18</v>
-      </c>
-      <c r="K353" s="7">
-        <v>28</v>
-      </c>
-      <c r="L353" s="7">
-        <v>26</v>
-      </c>
-      <c r="M353" s="7">
-        <v>61</v>
-      </c>
-      <c r="N353" s="7">
-        <v>20</v>
-      </c>
-      <c r="O353" s="7">
-        <v>92</v>
-      </c>
-      <c r="P353" s="7">
-        <v>41</v>
-      </c>
-      <c r="Q353" s="7">
-        <v>27</v>
-      </c>
-      <c r="R353" s="7">
-        <v>4</v>
-      </c>
+      <c r="I353" s="7"/>
+      <c r="J353" s="7"/>
+      <c r="K353" s="7"/>
+      <c r="L353" s="7"/>
+      <c r="M353" s="7"/>
+      <c r="N353" s="7"/>
+      <c r="O353" s="7"/>
+      <c r="P353" s="7"/>
+      <c r="Q353" s="7"/>
+      <c r="R353" s="7"/>
     </row>
     <row r="354" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A354" s="18"/>
@@ -12463,36 +12639,16 @@
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
-      <c r="I355" s="7">
-        <v>4</v>
-      </c>
-      <c r="J355" s="7">
-        <v>3</v>
-      </c>
-      <c r="K355" s="7">
-        <v>2</v>
-      </c>
-      <c r="L355" s="7">
-        <v>3</v>
-      </c>
-      <c r="M355" s="7">
-        <v>9</v>
-      </c>
-      <c r="N355" s="7">
-        <v>2</v>
-      </c>
-      <c r="O355" s="7">
-        <v>14</v>
-      </c>
-      <c r="P355" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q355" s="7">
-        <v>5</v>
-      </c>
-      <c r="R355" s="7">
-        <v>1</v>
-      </c>
+      <c r="I355" s="7"/>
+      <c r="J355" s="7"/>
+      <c r="K355" s="7"/>
+      <c r="L355" s="7"/>
+      <c r="M355" s="7"/>
+      <c r="N355" s="7"/>
+      <c r="O355" s="7"/>
+      <c r="P355" s="7"/>
+      <c r="Q355" s="7"/>
+      <c r="R355" s="7"/>
     </row>
     <row r="356" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A356" s="18" t="s">
@@ -12519,24 +12675,12 @@
       <c r="J356" s="7"/>
       <c r="K356" s="7"/>
       <c r="L356" s="7"/>
-      <c r="M356" s="7">
-        <v>54</v>
-      </c>
-      <c r="N356" s="7">
-        <v>19</v>
-      </c>
-      <c r="O356" s="7">
-        <v>44</v>
-      </c>
-      <c r="P356" s="7">
-        <v>15</v>
-      </c>
-      <c r="Q356" s="7">
-        <v>4</v>
-      </c>
-      <c r="R356" s="7">
-        <v>2</v>
-      </c>
+      <c r="M356" s="7"/>
+      <c r="N356" s="7"/>
+      <c r="O356" s="7"/>
+      <c r="P356" s="7"/>
+      <c r="Q356" s="7"/>
+      <c r="R356" s="7"/>
     </row>
     <row r="357" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A357" s="18"/>
@@ -12579,33 +12723,15 @@
       </c>
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
-      <c r="I358" s="7">
-        <v>4</v>
-      </c>
-      <c r="J358" s="7">
-        <v>8</v>
-      </c>
-      <c r="K358" s="7">
-        <v>15</v>
-      </c>
-      <c r="L358" s="7">
-        <v>5</v>
-      </c>
-      <c r="M358" s="7">
-        <v>16</v>
-      </c>
-      <c r="N358" s="7">
-        <v>3</v>
-      </c>
-      <c r="O358" s="7">
-        <v>8</v>
-      </c>
-      <c r="P358" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q358" s="7">
-        <v>7</v>
-      </c>
+      <c r="I358" s="7"/>
+      <c r="J358" s="7"/>
+      <c r="K358" s="7"/>
+      <c r="L358" s="7"/>
+      <c r="M358" s="7"/>
+      <c r="N358" s="7"/>
+      <c r="O358" s="7"/>
+      <c r="P358" s="7"/>
+      <c r="Q358" s="7"/>
       <c r="R358" s="7"/>
     </row>
     <row r="359" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12629,36 +12755,16 @@
       </c>
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
-      <c r="I359" s="7">
-        <v>5</v>
-      </c>
-      <c r="J359" s="7">
-        <v>12</v>
-      </c>
-      <c r="K359" s="7">
-        <v>26</v>
-      </c>
-      <c r="L359" s="7">
-        <v>12</v>
-      </c>
-      <c r="M359" s="7">
-        <v>53</v>
-      </c>
-      <c r="N359" s="7">
-        <v>24</v>
-      </c>
-      <c r="O359" s="7">
-        <v>41</v>
-      </c>
-      <c r="P359" s="7">
-        <v>20</v>
-      </c>
-      <c r="Q359" s="7">
-        <v>6</v>
-      </c>
-      <c r="R359" s="7">
-        <v>3</v>
-      </c>
+      <c r="I359" s="7"/>
+      <c r="J359" s="7"/>
+      <c r="K359" s="7"/>
+      <c r="L359" s="7"/>
+      <c r="M359" s="7"/>
+      <c r="N359" s="7"/>
+      <c r="O359" s="7"/>
+      <c r="P359" s="7"/>
+      <c r="Q359" s="7"/>
+      <c r="R359" s="7"/>
     </row>
     <row r="360" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A360" s="18" t="s">
@@ -12681,32 +12787,16 @@
       </c>
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
-      <c r="I360" s="7">
-        <v>11</v>
-      </c>
-      <c r="J360" s="7">
-        <v>20</v>
-      </c>
-      <c r="K360" s="7">
-        <v>28</v>
-      </c>
-      <c r="L360" s="7">
-        <v>19</v>
-      </c>
+      <c r="I360" s="7"/>
+      <c r="J360" s="7"/>
+      <c r="K360" s="7"/>
+      <c r="L360" s="7"/>
       <c r="M360" s="7"/>
       <c r="N360" s="7"/>
-      <c r="O360" s="7">
-        <v>6</v>
-      </c>
-      <c r="P360" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q360" s="7">
-        <v>6</v>
-      </c>
-      <c r="R360" s="7">
-        <v>1</v>
-      </c>
+      <c r="O360" s="7"/>
+      <c r="P360" s="7"/>
+      <c r="Q360" s="7"/>
+      <c r="R360" s="7"/>
     </row>
     <row r="361" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A361" s="18" t="s">
@@ -12728,39 +12818,17 @@
         <v>54</v>
       </c>
       <c r="G361" s="7"/>
-      <c r="H361" s="7">
-        <v>2</v>
-      </c>
-      <c r="I361" s="7">
-        <v>11</v>
-      </c>
-      <c r="J361" s="7">
-        <v>30</v>
-      </c>
-      <c r="K361" s="7">
-        <v>55</v>
-      </c>
-      <c r="L361" s="7">
-        <v>70</v>
-      </c>
-      <c r="M361" s="7">
-        <v>103</v>
-      </c>
-      <c r="N361" s="7">
-        <v>39</v>
-      </c>
-      <c r="O361" s="7">
-        <v>106</v>
-      </c>
-      <c r="P361" s="7">
-        <v>80</v>
-      </c>
-      <c r="Q361" s="7">
-        <v>51</v>
-      </c>
-      <c r="R361" s="7">
-        <v>6</v>
-      </c>
+      <c r="H361" s="7"/>
+      <c r="I361" s="7"/>
+      <c r="J361" s="7"/>
+      <c r="K361" s="7"/>
+      <c r="L361" s="7"/>
+      <c r="M361" s="7"/>
+      <c r="N361" s="7"/>
+      <c r="O361" s="7"/>
+      <c r="P361" s="7"/>
+      <c r="Q361" s="7"/>
+      <c r="R361" s="7"/>
     </row>
     <row r="362" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A362" s="18" t="s">
@@ -12782,36 +12850,16 @@
         <v>55</v>
       </c>
       <c r="G362" s="7"/>
-      <c r="H362" s="7">
-        <v>1</v>
-      </c>
-      <c r="I362" s="7">
-        <v>12</v>
-      </c>
-      <c r="J362" s="7">
-        <v>35</v>
-      </c>
-      <c r="K362" s="7">
-        <v>28</v>
-      </c>
-      <c r="L362" s="7">
-        <v>35</v>
-      </c>
-      <c r="M362" s="7">
-        <v>5</v>
-      </c>
-      <c r="N362" s="7">
-        <v>3</v>
-      </c>
-      <c r="O362" s="7">
-        <v>6</v>
-      </c>
-      <c r="P362" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q362" s="7">
-        <v>20</v>
-      </c>
+      <c r="H362" s="7"/>
+      <c r="I362" s="7"/>
+      <c r="J362" s="7"/>
+      <c r="K362" s="7"/>
+      <c r="L362" s="7"/>
+      <c r="M362" s="7"/>
+      <c r="N362" s="7"/>
+      <c r="O362" s="7"/>
+      <c r="P362" s="7"/>
+      <c r="Q362" s="7"/>
       <c r="R362" s="7"/>
     </row>
     <row r="363" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12835,33 +12883,15 @@
       </c>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
-      <c r="I363" s="7">
-        <v>14</v>
-      </c>
-      <c r="J363" s="7">
-        <v>23</v>
-      </c>
-      <c r="K363" s="7">
-        <v>20</v>
-      </c>
-      <c r="L363" s="7">
-        <v>20</v>
-      </c>
-      <c r="M363" s="7">
-        <v>11</v>
-      </c>
-      <c r="N363" s="7">
-        <v>3</v>
-      </c>
-      <c r="O363" s="7">
-        <v>19</v>
-      </c>
-      <c r="P363" s="7">
-        <v>14</v>
-      </c>
-      <c r="Q363" s="7">
-        <v>4</v>
-      </c>
+      <c r="I363" s="7"/>
+      <c r="J363" s="7"/>
+      <c r="K363" s="7"/>
+      <c r="L363" s="7"/>
+      <c r="M363" s="7"/>
+      <c r="N363" s="7"/>
+      <c r="O363" s="7"/>
+      <c r="P363" s="7"/>
+      <c r="Q363" s="7"/>
       <c r="R363" s="7"/>
     </row>
     <row r="364" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -12887,28 +12917,14 @@
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
       <c r="J364" s="7"/>
-      <c r="K364" s="7">
-        <v>1</v>
-      </c>
+      <c r="K364" s="7"/>
       <c r="L364" s="7"/>
-      <c r="M364" s="7">
-        <v>24</v>
-      </c>
-      <c r="N364" s="7">
-        <v>11</v>
-      </c>
-      <c r="O364" s="7">
-        <v>29</v>
-      </c>
-      <c r="P364" s="7">
-        <v>7</v>
-      </c>
-      <c r="Q364" s="7">
-        <v>1</v>
-      </c>
-      <c r="R364" s="7">
-        <v>1</v>
-      </c>
+      <c r="M364" s="7"/>
+      <c r="N364" s="7"/>
+      <c r="O364" s="7"/>
+      <c r="P364" s="7"/>
+      <c r="Q364" s="7"/>
+      <c r="R364" s="7"/>
     </row>
     <row r="365" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A365" s="18" t="s">
@@ -12930,39 +12946,17 @@
         <v>58</v>
       </c>
       <c r="G365" s="7"/>
-      <c r="H365" s="7">
-        <v>7</v>
-      </c>
-      <c r="I365" s="7">
-        <v>15</v>
-      </c>
-      <c r="J365" s="7">
-        <v>37</v>
-      </c>
-      <c r="K365" s="7">
-        <v>44</v>
-      </c>
-      <c r="L365" s="7">
-        <v>40</v>
-      </c>
-      <c r="M365" s="7">
-        <v>185</v>
-      </c>
-      <c r="N365" s="7">
-        <v>91</v>
-      </c>
-      <c r="O365" s="7">
-        <v>180</v>
-      </c>
-      <c r="P365" s="7">
-        <v>81</v>
-      </c>
-      <c r="Q365" s="7">
-        <v>30</v>
-      </c>
-      <c r="R365" s="7">
-        <v>22</v>
-      </c>
+      <c r="H365" s="7"/>
+      <c r="I365" s="7"/>
+      <c r="J365" s="7"/>
+      <c r="K365" s="7"/>
+      <c r="L365" s="7"/>
+      <c r="M365" s="7"/>
+      <c r="N365" s="7"/>
+      <c r="O365" s="7"/>
+      <c r="P365" s="7"/>
+      <c r="Q365" s="7"/>
+      <c r="R365" s="7"/>
     </row>
     <row r="366" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A366" s="18"/>
@@ -13005,36 +12999,16 @@
       </c>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
-      <c r="I367" s="7">
-        <v>11</v>
-      </c>
-      <c r="J367" s="7">
-        <v>26</v>
-      </c>
-      <c r="K367" s="7">
-        <v>28</v>
-      </c>
-      <c r="L367" s="7">
-        <v>44</v>
-      </c>
-      <c r="M367" s="7">
-        <v>188</v>
-      </c>
-      <c r="N367" s="7">
-        <v>62</v>
-      </c>
-      <c r="O367" s="7">
-        <v>174</v>
-      </c>
-      <c r="P367" s="7">
-        <v>69</v>
-      </c>
-      <c r="Q367" s="7">
-        <v>20</v>
-      </c>
-      <c r="R367" s="7">
-        <v>15</v>
-      </c>
+      <c r="I367" s="7"/>
+      <c r="J367" s="7"/>
+      <c r="K367" s="7"/>
+      <c r="L367" s="7"/>
+      <c r="M367" s="7"/>
+      <c r="N367" s="7"/>
+      <c r="O367" s="7"/>
+      <c r="P367" s="7"/>
+      <c r="Q367" s="7"/>
+      <c r="R367" s="7"/>
     </row>
     <row r="368" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A368" s="18" t="s">
@@ -13060,27 +13034,13 @@
       <c r="I368" s="7"/>
       <c r="J368" s="7"/>
       <c r="K368" s="7"/>
-      <c r="L368" s="7">
-        <v>1</v>
-      </c>
-      <c r="M368" s="7">
-        <v>121</v>
-      </c>
-      <c r="N368" s="7">
-        <v>37</v>
-      </c>
-      <c r="O368" s="7">
-        <v>103</v>
-      </c>
-      <c r="P368" s="7">
-        <v>18</v>
-      </c>
-      <c r="Q368" s="7">
-        <v>1</v>
-      </c>
-      <c r="R368" s="7">
-        <v>11</v>
-      </c>
+      <c r="L368" s="7"/>
+      <c r="M368" s="7"/>
+      <c r="N368" s="7"/>
+      <c r="O368" s="7"/>
+      <c r="P368" s="7"/>
+      <c r="Q368" s="7"/>
+      <c r="R368" s="7"/>
     </row>
     <row r="369" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A369" s="18" t="s">
@@ -13104,31 +13064,15 @@
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
-      <c r="J369" s="7">
-        <v>1</v>
-      </c>
+      <c r="J369" s="7"/>
       <c r="K369" s="7"/>
-      <c r="L369" s="7">
-        <v>2</v>
-      </c>
-      <c r="M369" s="7">
-        <v>160</v>
-      </c>
-      <c r="N369" s="7">
-        <v>108</v>
-      </c>
-      <c r="O369" s="7">
-        <v>108</v>
-      </c>
-      <c r="P369" s="7">
-        <v>22</v>
-      </c>
-      <c r="Q369" s="7">
-        <v>1</v>
-      </c>
-      <c r="R369" s="7">
-        <v>24</v>
-      </c>
+      <c r="L369" s="7"/>
+      <c r="M369" s="7"/>
+      <c r="N369" s="7"/>
+      <c r="O369" s="7"/>
+      <c r="P369" s="7"/>
+      <c r="Q369" s="7"/>
+      <c r="R369" s="7"/>
     </row>
     <row r="370" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A370" s="18" t="s">
@@ -13151,28 +13095,14 @@
       </c>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
-      <c r="I370" s="7">
-        <v>1</v>
-      </c>
-      <c r="J370" s="7">
-        <v>1</v>
-      </c>
-      <c r="K370" s="7">
-        <v>1</v>
-      </c>
-      <c r="L370" s="7">
-        <v>4</v>
-      </c>
-      <c r="M370" s="7">
-        <v>1</v>
-      </c>
+      <c r="I370" s="7"/>
+      <c r="J370" s="7"/>
+      <c r="K370" s="7"/>
+      <c r="L370" s="7"/>
+      <c r="M370" s="7"/>
       <c r="N370" s="7"/>
-      <c r="O370" s="7">
-        <v>3</v>
-      </c>
-      <c r="P370" s="7">
-        <v>4</v>
-      </c>
+      <c r="O370" s="7"/>
+      <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
       <c r="R370" s="7"/>
     </row>
@@ -13196,39 +13126,17 @@
         <v>86</v>
       </c>
       <c r="G371" s="7"/>
-      <c r="H371" s="7">
-        <v>2</v>
-      </c>
-      <c r="I371" s="7">
-        <v>24</v>
-      </c>
-      <c r="J371" s="7">
-        <v>38</v>
-      </c>
-      <c r="K371" s="7">
-        <v>46</v>
-      </c>
-      <c r="L371" s="7">
-        <v>30</v>
-      </c>
-      <c r="M371" s="7">
-        <v>6</v>
-      </c>
-      <c r="N371" s="7">
-        <v>3</v>
-      </c>
-      <c r="O371" s="7">
-        <v>23</v>
-      </c>
-      <c r="P371" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q371" s="7">
-        <v>6</v>
-      </c>
-      <c r="R371" s="7">
-        <v>3</v>
-      </c>
+      <c r="H371" s="7"/>
+      <c r="I371" s="7"/>
+      <c r="J371" s="7"/>
+      <c r="K371" s="7"/>
+      <c r="L371" s="7"/>
+      <c r="M371" s="7"/>
+      <c r="N371" s="7"/>
+      <c r="O371" s="7"/>
+      <c r="P371" s="7"/>
+      <c r="Q371" s="7"/>
+      <c r="R371" s="7"/>
     </row>
     <row r="372" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A372" s="18" t="s">
@@ -13252,30 +13160,14 @@
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
-      <c r="J372" s="7">
-        <v>3</v>
-      </c>
-      <c r="K372" s="7">
-        <v>7</v>
-      </c>
-      <c r="L372" s="7">
-        <v>3</v>
-      </c>
-      <c r="M372" s="7">
-        <v>4</v>
-      </c>
-      <c r="N372" s="7">
-        <v>3</v>
-      </c>
-      <c r="O372" s="7">
-        <v>5</v>
-      </c>
-      <c r="P372" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q372" s="7">
-        <v>2</v>
-      </c>
+      <c r="J372" s="7"/>
+      <c r="K372" s="7"/>
+      <c r="L372" s="7"/>
+      <c r="M372" s="7"/>
+      <c r="N372" s="7"/>
+      <c r="O372" s="7"/>
+      <c r="P372" s="7"/>
+      <c r="Q372" s="7"/>
       <c r="R372" s="7"/>
     </row>
     <row r="373" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -13299,36 +13191,16 @@
       </c>
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
-      <c r="I373" s="7">
-        <v>14</v>
-      </c>
-      <c r="J373" s="7">
-        <v>41</v>
-      </c>
-      <c r="K373" s="7">
-        <v>71</v>
-      </c>
-      <c r="L373" s="7">
-        <v>71</v>
-      </c>
-      <c r="M373" s="7">
-        <v>75</v>
-      </c>
-      <c r="N373" s="7">
-        <v>18</v>
-      </c>
-      <c r="O373" s="7">
-        <v>95</v>
-      </c>
-      <c r="P373" s="7">
-        <v>75</v>
-      </c>
-      <c r="Q373" s="7">
-        <v>30</v>
-      </c>
-      <c r="R373" s="7">
-        <v>8</v>
-      </c>
+      <c r="I373" s="7"/>
+      <c r="J373" s="7"/>
+      <c r="K373" s="7"/>
+      <c r="L373" s="7"/>
+      <c r="M373" s="7"/>
+      <c r="N373" s="7"/>
+      <c r="O373" s="7"/>
+      <c r="P373" s="7"/>
+      <c r="Q373" s="7"/>
+      <c r="R373" s="7"/>
     </row>
     <row r="374" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A374" s="18" t="s">
@@ -13353,30 +13225,14 @@
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
       <c r="J374" s="7"/>
-      <c r="K374" s="7">
-        <v>1</v>
-      </c>
-      <c r="L374" s="7">
-        <v>1</v>
-      </c>
-      <c r="M374" s="7">
-        <v>62</v>
-      </c>
-      <c r="N374" s="7">
-        <v>14</v>
-      </c>
-      <c r="O374" s="7">
-        <v>75</v>
-      </c>
-      <c r="P374" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q374" s="7">
-        <v>1</v>
-      </c>
-      <c r="R374" s="7">
-        <v>2</v>
-      </c>
+      <c r="K374" s="7"/>
+      <c r="L374" s="7"/>
+      <c r="M374" s="7"/>
+      <c r="N374" s="7"/>
+      <c r="O374" s="7"/>
+      <c r="P374" s="7"/>
+      <c r="Q374" s="7"/>
+      <c r="R374" s="7"/>
     </row>
     <row r="375" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A375" s="18" t="s">
@@ -13398,39 +13254,17 @@
         <v>90</v>
       </c>
       <c r="G375" s="7"/>
-      <c r="H375" s="7">
-        <v>3</v>
-      </c>
-      <c r="I375" s="7">
-        <v>6</v>
-      </c>
-      <c r="J375" s="7">
-        <v>28</v>
-      </c>
-      <c r="K375" s="7">
-        <v>39</v>
-      </c>
-      <c r="L375" s="7">
-        <v>29</v>
-      </c>
-      <c r="M375" s="7">
-        <v>79</v>
-      </c>
-      <c r="N375" s="7">
-        <v>41</v>
-      </c>
-      <c r="O375" s="7">
-        <v>110</v>
-      </c>
-      <c r="P375" s="7">
-        <v>27</v>
-      </c>
-      <c r="Q375" s="7">
-        <v>11</v>
-      </c>
-      <c r="R375" s="7">
-        <v>12</v>
-      </c>
+      <c r="H375" s="7"/>
+      <c r="I375" s="7"/>
+      <c r="J375" s="7"/>
+      <c r="K375" s="7"/>
+      <c r="L375" s="7"/>
+      <c r="M375" s="7"/>
+      <c r="N375" s="7"/>
+      <c r="O375" s="7"/>
+      <c r="P375" s="7"/>
+      <c r="Q375" s="7"/>
+      <c r="R375" s="7"/>
     </row>
     <row r="376" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A376" s="18" t="s">
@@ -13455,30 +13289,14 @@
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
       <c r="J376" s="7"/>
-      <c r="K376" s="7">
-        <v>1</v>
-      </c>
-      <c r="L376" s="7">
-        <v>4</v>
-      </c>
-      <c r="M376" s="7">
-        <v>195</v>
-      </c>
-      <c r="N376" s="7">
-        <v>68</v>
-      </c>
-      <c r="O376" s="7">
-        <v>160</v>
-      </c>
-      <c r="P376" s="7">
-        <v>29</v>
-      </c>
-      <c r="Q376" s="7">
-        <v>7</v>
-      </c>
-      <c r="R376" s="7">
-        <v>8</v>
-      </c>
+      <c r="K376" s="7"/>
+      <c r="L376" s="7"/>
+      <c r="M376" s="7"/>
+      <c r="N376" s="7"/>
+      <c r="O376" s="7"/>
+      <c r="P376" s="7"/>
+      <c r="Q376" s="7"/>
+      <c r="R376" s="7"/>
     </row>
     <row r="377" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A377" s="18" t="s">
@@ -13500,39 +13318,17 @@
         <v>92</v>
       </c>
       <c r="G377" s="7"/>
-      <c r="H377" s="7">
-        <v>3</v>
-      </c>
-      <c r="I377" s="7">
-        <v>23</v>
-      </c>
-      <c r="J377" s="7">
-        <v>44</v>
-      </c>
-      <c r="K377" s="7">
-        <v>60</v>
-      </c>
-      <c r="L377" s="7">
-        <v>38</v>
-      </c>
-      <c r="M377" s="7">
-        <v>79</v>
-      </c>
-      <c r="N377" s="7">
-        <v>30</v>
-      </c>
-      <c r="O377" s="7">
-        <v>110</v>
-      </c>
-      <c r="P377" s="7">
-        <v>40</v>
-      </c>
-      <c r="Q377" s="7">
-        <v>16</v>
-      </c>
-      <c r="R377" s="7">
-        <v>5</v>
-      </c>
+      <c r="H377" s="7"/>
+      <c r="I377" s="7"/>
+      <c r="J377" s="7"/>
+      <c r="K377" s="7"/>
+      <c r="L377" s="7"/>
+      <c r="M377" s="7"/>
+      <c r="N377" s="7"/>
+      <c r="O377" s="7"/>
+      <c r="P377" s="7"/>
+      <c r="Q377" s="7"/>
+      <c r="R377" s="7"/>
     </row>
     <row r="378" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A378" s="18" t="s">
@@ -13559,22 +13355,12 @@
       <c r="J378" s="7"/>
       <c r="K378" s="7"/>
       <c r="L378" s="7"/>
-      <c r="M378" s="7">
-        <v>24</v>
-      </c>
-      <c r="N378" s="7">
-        <v>8</v>
-      </c>
-      <c r="O378" s="7">
-        <v>39</v>
-      </c>
-      <c r="P378" s="7">
-        <v>6</v>
-      </c>
+      <c r="M378" s="7"/>
+      <c r="N378" s="7"/>
+      <c r="O378" s="7"/>
+      <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
-      <c r="R378" s="7">
-        <v>3</v>
-      </c>
+      <c r="R378" s="7"/>
     </row>
     <row r="379" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A379" s="18" t="s">
@@ -13596,39 +13382,17 @@
         <v>94</v>
       </c>
       <c r="G379" s="7"/>
-      <c r="H379" s="7">
-        <v>1</v>
-      </c>
-      <c r="I379" s="7">
-        <v>26</v>
-      </c>
-      <c r="J379" s="7">
-        <v>29</v>
-      </c>
-      <c r="K379" s="7">
-        <v>44</v>
-      </c>
-      <c r="L379" s="7">
-        <v>47</v>
-      </c>
-      <c r="M379" s="7">
-        <v>116</v>
-      </c>
-      <c r="N379" s="7">
-        <v>43</v>
-      </c>
-      <c r="O379" s="7">
-        <v>137</v>
-      </c>
-      <c r="P379" s="7">
-        <v>54</v>
-      </c>
-      <c r="Q379" s="7">
-        <v>16</v>
-      </c>
-      <c r="R379" s="7">
-        <v>17</v>
-      </c>
+      <c r="H379" s="7"/>
+      <c r="I379" s="7"/>
+      <c r="J379" s="7"/>
+      <c r="K379" s="7"/>
+      <c r="L379" s="7"/>
+      <c r="M379" s="7"/>
+      <c r="N379" s="7"/>
+      <c r="O379" s="7"/>
+      <c r="P379" s="7"/>
+      <c r="Q379" s="7"/>
+      <c r="R379" s="7"/>
     </row>
     <row r="380" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A380" s="18" t="s">
@@ -13650,39 +13414,17 @@
         <v>95</v>
       </c>
       <c r="G380" s="7"/>
-      <c r="H380" s="7">
-        <v>1</v>
-      </c>
-      <c r="I380" s="7">
-        <v>14</v>
-      </c>
-      <c r="J380" s="7">
-        <v>26</v>
-      </c>
-      <c r="K380" s="7">
-        <v>36</v>
-      </c>
-      <c r="L380" s="7">
-        <v>51</v>
-      </c>
-      <c r="M380" s="7">
-        <v>209</v>
-      </c>
-      <c r="N380" s="7">
-        <v>77</v>
-      </c>
-      <c r="O380" s="7">
-        <v>211</v>
-      </c>
-      <c r="P380" s="7">
-        <v>82</v>
-      </c>
-      <c r="Q380" s="7">
-        <v>32</v>
-      </c>
-      <c r="R380" s="7">
-        <v>19</v>
-      </c>
+      <c r="H380" s="7"/>
+      <c r="I380" s="7"/>
+      <c r="J380" s="7"/>
+      <c r="K380" s="7"/>
+      <c r="L380" s="7"/>
+      <c r="M380" s="7"/>
+      <c r="N380" s="7"/>
+      <c r="O380" s="7"/>
+      <c r="P380" s="7"/>
+      <c r="Q380" s="7"/>
+      <c r="R380" s="7"/>
     </row>
     <row r="381" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A381" s="18" t="s">
@@ -13705,36 +13447,16 @@
       </c>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
-      <c r="I381" s="7">
-        <v>14</v>
-      </c>
-      <c r="J381" s="7">
-        <v>24</v>
-      </c>
-      <c r="K381" s="7">
-        <v>29</v>
-      </c>
-      <c r="L381" s="7">
-        <v>35</v>
-      </c>
-      <c r="M381" s="7">
-        <v>127</v>
-      </c>
-      <c r="N381" s="7">
-        <v>30</v>
-      </c>
-      <c r="O381" s="7">
-        <v>137</v>
-      </c>
-      <c r="P381" s="7">
-        <v>55</v>
-      </c>
-      <c r="Q381" s="7">
-        <v>14</v>
-      </c>
-      <c r="R381" s="7">
-        <v>15</v>
-      </c>
+      <c r="I381" s="7"/>
+      <c r="J381" s="7"/>
+      <c r="K381" s="7"/>
+      <c r="L381" s="7"/>
+      <c r="M381" s="7"/>
+      <c r="N381" s="7"/>
+      <c r="O381" s="7"/>
+      <c r="P381" s="7"/>
+      <c r="Q381" s="7"/>
+      <c r="R381" s="7"/>
     </row>
     <row r="382" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A382" s="18"/>
@@ -13781,22 +13503,12 @@
       <c r="J383" s="7"/>
       <c r="K383" s="7"/>
       <c r="L383" s="7"/>
-      <c r="M383" s="7">
-        <v>82</v>
-      </c>
-      <c r="N383" s="7">
-        <v>24</v>
-      </c>
-      <c r="O383" s="7">
-        <v>74</v>
-      </c>
-      <c r="P383" s="7">
-        <v>9</v>
-      </c>
+      <c r="M383" s="7"/>
+      <c r="N383" s="7"/>
+      <c r="O383" s="7"/>
+      <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
-      <c r="R383" s="7">
-        <v>2</v>
-      </c>
+      <c r="R383" s="7"/>
     </row>
     <row r="384" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A384" s="18"/>
@@ -13837,42 +13549,18 @@
       <c r="F385" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G385" s="7">
-        <v>1</v>
-      </c>
-      <c r="H385" s="7">
-        <v>1</v>
-      </c>
-      <c r="I385" s="7">
-        <v>12</v>
-      </c>
-      <c r="J385" s="7">
-        <v>23</v>
-      </c>
-      <c r="K385" s="7">
-        <v>37</v>
-      </c>
-      <c r="L385" s="7">
-        <v>34</v>
-      </c>
-      <c r="M385" s="7">
-        <v>132</v>
-      </c>
-      <c r="N385" s="7">
-        <v>29</v>
-      </c>
-      <c r="O385" s="7">
-        <v>151</v>
-      </c>
-      <c r="P385" s="7">
-        <v>74</v>
-      </c>
-      <c r="Q385" s="7">
-        <v>25</v>
-      </c>
-      <c r="R385" s="7">
-        <v>5</v>
-      </c>
+      <c r="G385" s="7"/>
+      <c r="H385" s="7"/>
+      <c r="I385" s="7"/>
+      <c r="J385" s="7"/>
+      <c r="K385" s="7"/>
+      <c r="L385" s="7"/>
+      <c r="M385" s="7"/>
+      <c r="N385" s="7"/>
+      <c r="O385" s="7"/>
+      <c r="P385" s="7"/>
+      <c r="Q385" s="7"/>
+      <c r="R385" s="7"/>
     </row>
     <row r="386" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A386" s="18"/>
@@ -13915,27 +13603,15 @@
       </c>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
-      <c r="I387" s="7">
-        <v>3</v>
-      </c>
-      <c r="J387" s="7">
-        <v>6</v>
-      </c>
-      <c r="K387" s="7">
-        <v>8</v>
-      </c>
-      <c r="L387" s="7">
-        <v>6</v>
-      </c>
+      <c r="I387" s="7"/>
+      <c r="J387" s="7"/>
+      <c r="K387" s="7"/>
+      <c r="L387" s="7"/>
       <c r="M387" s="7"/>
       <c r="N387" s="7"/>
       <c r="O387" s="7"/>
-      <c r="P387" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q387" s="7">
-        <v>1</v>
-      </c>
+      <c r="P387" s="7"/>
+      <c r="Q387" s="7"/>
       <c r="R387" s="7"/>
     </row>
     <row r="388" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -13958,39 +13634,17 @@
         <v>129</v>
       </c>
       <c r="G388" s="7"/>
-      <c r="H388" s="7">
-        <v>1</v>
-      </c>
-      <c r="I388" s="7">
-        <v>6</v>
-      </c>
-      <c r="J388" s="7">
-        <v>8</v>
-      </c>
-      <c r="K388" s="7">
-        <v>17</v>
-      </c>
-      <c r="L388" s="7">
-        <v>24</v>
-      </c>
-      <c r="M388" s="7">
-        <v>18</v>
-      </c>
-      <c r="N388" s="7">
-        <v>1</v>
-      </c>
-      <c r="O388" s="7">
-        <v>16</v>
-      </c>
-      <c r="P388" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q388" s="7">
-        <v>7</v>
-      </c>
-      <c r="R388" s="7">
-        <v>2</v>
-      </c>
+      <c r="H388" s="7"/>
+      <c r="I388" s="7"/>
+      <c r="J388" s="7"/>
+      <c r="K388" s="7"/>
+      <c r="L388" s="7"/>
+      <c r="M388" s="7"/>
+      <c r="N388" s="7"/>
+      <c r="O388" s="7"/>
+      <c r="P388" s="7"/>
+      <c r="Q388" s="7"/>
+      <c r="R388" s="7"/>
     </row>
     <row r="389" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A389" s="18" t="s">
@@ -14012,34 +13666,16 @@
         <v>130</v>
       </c>
       <c r="G389" s="7"/>
-      <c r="H389" s="7">
-        <v>1</v>
-      </c>
-      <c r="I389" s="7">
-        <v>1</v>
-      </c>
-      <c r="J389" s="7">
-        <v>2</v>
-      </c>
-      <c r="K389" s="7">
-        <v>2</v>
-      </c>
-      <c r="L389" s="7">
-        <v>8</v>
-      </c>
-      <c r="M389" s="7">
-        <v>3</v>
-      </c>
+      <c r="H389" s="7"/>
+      <c r="I389" s="7"/>
+      <c r="J389" s="7"/>
+      <c r="K389" s="7"/>
+      <c r="L389" s="7"/>
+      <c r="M389" s="7"/>
       <c r="N389" s="7"/>
-      <c r="O389" s="7">
-        <v>7</v>
-      </c>
-      <c r="P389" s="7">
-        <v>11</v>
-      </c>
-      <c r="Q389" s="7">
-        <v>6</v>
-      </c>
+      <c r="O389" s="7"/>
+      <c r="P389" s="7"/>
+      <c r="Q389" s="7"/>
       <c r="R389" s="7"/>
     </row>
     <row r="390" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -14062,36 +13698,16 @@
         <v>131</v>
       </c>
       <c r="G390" s="7"/>
-      <c r="H390" s="7">
-        <v>1</v>
-      </c>
-      <c r="I390" s="7">
-        <v>11</v>
-      </c>
-      <c r="J390" s="7">
-        <v>18</v>
-      </c>
-      <c r="K390" s="7">
-        <v>20</v>
-      </c>
-      <c r="L390" s="7">
-        <v>18</v>
-      </c>
-      <c r="M390" s="7">
-        <v>23</v>
-      </c>
-      <c r="N390" s="7">
-        <v>4</v>
-      </c>
-      <c r="O390" s="7">
-        <v>32</v>
-      </c>
-      <c r="P390" s="7">
-        <v>13</v>
-      </c>
-      <c r="Q390" s="7">
-        <v>9</v>
-      </c>
+      <c r="H390" s="7"/>
+      <c r="I390" s="7"/>
+      <c r="J390" s="7"/>
+      <c r="K390" s="7"/>
+      <c r="L390" s="7"/>
+      <c r="M390" s="7"/>
+      <c r="N390" s="7"/>
+      <c r="O390" s="7"/>
+      <c r="P390" s="7"/>
+      <c r="Q390" s="7"/>
       <c r="R390" s="7"/>
     </row>
     <row r="391" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -14114,39 +13730,17 @@
         <v>132</v>
       </c>
       <c r="G391" s="7"/>
-      <c r="H391" s="7">
-        <v>4</v>
-      </c>
-      <c r="I391" s="7">
-        <v>8</v>
-      </c>
-      <c r="J391" s="7">
-        <v>16</v>
-      </c>
-      <c r="K391" s="7">
-        <v>30</v>
-      </c>
-      <c r="L391" s="7">
-        <v>19</v>
-      </c>
-      <c r="M391" s="7">
-        <v>98</v>
-      </c>
-      <c r="N391" s="7">
-        <v>39</v>
-      </c>
-      <c r="O391" s="7">
-        <v>129</v>
-      </c>
-      <c r="P391" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q391" s="7">
-        <v>29</v>
-      </c>
-      <c r="R391" s="7">
-        <v>5</v>
-      </c>
+      <c r="H391" s="7"/>
+      <c r="I391" s="7"/>
+      <c r="J391" s="7"/>
+      <c r="K391" s="7"/>
+      <c r="L391" s="7"/>
+      <c r="M391" s="7"/>
+      <c r="N391" s="7"/>
+      <c r="O391" s="7"/>
+      <c r="P391" s="7"/>
+      <c r="Q391" s="7"/>
+      <c r="R391" s="7"/>
     </row>
     <row r="392" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A392" s="18"/>
@@ -14189,36 +13783,16 @@
       </c>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
-      <c r="I393" s="7">
-        <v>8</v>
-      </c>
-      <c r="J393" s="7">
-        <v>23</v>
-      </c>
-      <c r="K393" s="7">
-        <v>33</v>
-      </c>
-      <c r="L393" s="7">
-        <v>34</v>
-      </c>
-      <c r="M393" s="7">
-        <v>7</v>
-      </c>
-      <c r="N393" s="7">
-        <v>5</v>
-      </c>
-      <c r="O393" s="7">
-        <v>9</v>
-      </c>
-      <c r="P393" s="7">
-        <v>15</v>
-      </c>
-      <c r="Q393" s="7">
-        <v>9</v>
-      </c>
-      <c r="R393" s="7">
-        <v>1</v>
-      </c>
+      <c r="I393" s="7"/>
+      <c r="J393" s="7"/>
+      <c r="K393" s="7"/>
+      <c r="L393" s="7"/>
+      <c r="M393" s="7"/>
+      <c r="N393" s="7"/>
+      <c r="O393" s="7"/>
+      <c r="P393" s="7"/>
+      <c r="Q393" s="7"/>
+      <c r="R393" s="7"/>
     </row>
     <row r="394" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A394" s="18" t="s">
@@ -14241,36 +13815,16 @@
       </c>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
-      <c r="I394" s="7">
-        <v>7</v>
-      </c>
-      <c r="J394" s="7">
-        <v>26</v>
-      </c>
-      <c r="K394" s="7">
-        <v>32</v>
-      </c>
-      <c r="L394" s="7">
-        <v>54</v>
-      </c>
-      <c r="M394" s="7">
-        <v>119</v>
-      </c>
-      <c r="N394" s="7">
-        <v>64</v>
-      </c>
-      <c r="O394" s="7">
-        <v>128</v>
-      </c>
-      <c r="P394" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q394" s="7">
-        <v>20</v>
-      </c>
-      <c r="R394" s="7">
-        <v>8</v>
-      </c>
+      <c r="I394" s="7"/>
+      <c r="J394" s="7"/>
+      <c r="K394" s="7"/>
+      <c r="L394" s="7"/>
+      <c r="M394" s="7"/>
+      <c r="N394" s="7"/>
+      <c r="O394" s="7"/>
+      <c r="P394" s="7"/>
+      <c r="Q394" s="7"/>
+      <c r="R394" s="7"/>
     </row>
     <row r="395" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A395" s="18" t="s">
@@ -14293,36 +13847,16 @@
       </c>
       <c r="G395" s="7"/>
       <c r="H395" s="7"/>
-      <c r="I395" s="7">
-        <v>6</v>
-      </c>
-      <c r="J395" s="7">
-        <v>33</v>
-      </c>
-      <c r="K395" s="7">
-        <v>53</v>
-      </c>
-      <c r="L395" s="7">
-        <v>48</v>
-      </c>
-      <c r="M395" s="7">
-        <v>108</v>
-      </c>
-      <c r="N395" s="7">
-        <v>45</v>
-      </c>
-      <c r="O395" s="7">
-        <v>138</v>
-      </c>
-      <c r="P395" s="7">
-        <v>60</v>
-      </c>
-      <c r="Q395" s="7">
-        <v>39</v>
-      </c>
-      <c r="R395" s="7">
-        <v>14</v>
-      </c>
+      <c r="I395" s="7"/>
+      <c r="J395" s="7"/>
+      <c r="K395" s="7"/>
+      <c r="L395" s="7"/>
+      <c r="M395" s="7"/>
+      <c r="N395" s="7"/>
+      <c r="O395" s="7"/>
+      <c r="P395" s="7"/>
+      <c r="Q395" s="7"/>
+      <c r="R395" s="7"/>
     </row>
     <row r="396" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A396" s="18"/>
@@ -14363,40 +13897,18 @@
       <c r="F397" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G397" s="7">
-        <v>1</v>
-      </c>
+      <c r="G397" s="7"/>
       <c r="H397" s="7"/>
-      <c r="I397" s="7">
-        <v>22</v>
-      </c>
-      <c r="J397" s="7">
-        <v>35</v>
-      </c>
-      <c r="K397" s="7">
-        <v>67</v>
-      </c>
-      <c r="L397" s="7">
-        <v>75</v>
-      </c>
-      <c r="M397" s="7">
-        <v>166</v>
-      </c>
-      <c r="N397" s="7">
-        <v>56</v>
-      </c>
-      <c r="O397" s="7">
-        <v>175</v>
-      </c>
-      <c r="P397" s="7">
-        <v>38</v>
-      </c>
-      <c r="Q397" s="7">
-        <v>29</v>
-      </c>
-      <c r="R397" s="7">
-        <v>14</v>
-      </c>
+      <c r="I397" s="7"/>
+      <c r="J397" s="7"/>
+      <c r="K397" s="7"/>
+      <c r="L397" s="7"/>
+      <c r="M397" s="7"/>
+      <c r="N397" s="7"/>
+      <c r="O397" s="7"/>
+      <c r="P397" s="7"/>
+      <c r="Q397" s="7"/>
+      <c r="R397" s="7"/>
     </row>
     <row r="398" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A398" s="18" t="s">
@@ -14418,39 +13930,17 @@
         <v>177</v>
       </c>
       <c r="G398" s="7"/>
-      <c r="H398" s="7">
-        <v>1</v>
-      </c>
-      <c r="I398" s="7">
-        <v>12</v>
-      </c>
-      <c r="J398" s="7">
-        <v>29</v>
-      </c>
-      <c r="K398" s="7">
-        <v>58</v>
-      </c>
-      <c r="L398" s="7">
-        <v>47</v>
-      </c>
-      <c r="M398" s="7">
-        <v>170</v>
-      </c>
-      <c r="N398" s="7">
-        <v>77</v>
-      </c>
-      <c r="O398" s="7">
-        <v>207</v>
-      </c>
-      <c r="P398" s="7">
-        <v>83</v>
-      </c>
-      <c r="Q398" s="7">
-        <v>26</v>
-      </c>
-      <c r="R398" s="7">
-        <v>22</v>
-      </c>
+      <c r="H398" s="7"/>
+      <c r="I398" s="7"/>
+      <c r="J398" s="7"/>
+      <c r="K398" s="7"/>
+      <c r="L398" s="7"/>
+      <c r="M398" s="7"/>
+      <c r="N398" s="7"/>
+      <c r="O398" s="7"/>
+      <c r="P398" s="7"/>
+      <c r="Q398" s="7"/>
+      <c r="R398" s="7"/>
     </row>
     <row r="399" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A399" s="18" t="s">
@@ -14473,36 +13963,16 @@
       </c>
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
-      <c r="I399" s="7">
-        <v>2</v>
-      </c>
-      <c r="J399" s="7">
-        <v>14</v>
-      </c>
-      <c r="K399" s="7">
-        <v>34</v>
-      </c>
-      <c r="L399" s="7">
-        <v>38</v>
-      </c>
-      <c r="M399" s="7">
-        <v>164</v>
-      </c>
-      <c r="N399" s="7">
-        <v>86</v>
-      </c>
-      <c r="O399" s="7">
-        <v>140</v>
-      </c>
-      <c r="P399" s="7">
-        <v>54</v>
-      </c>
-      <c r="Q399" s="7">
-        <v>23</v>
-      </c>
-      <c r="R399" s="7">
-        <v>6</v>
-      </c>
+      <c r="I399" s="7"/>
+      <c r="J399" s="7"/>
+      <c r="K399" s="7"/>
+      <c r="L399" s="7"/>
+      <c r="M399" s="7"/>
+      <c r="N399" s="7"/>
+      <c r="O399" s="7"/>
+      <c r="P399" s="7"/>
+      <c r="Q399" s="7"/>
+      <c r="R399" s="7"/>
     </row>
     <row r="400" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A400" s="18" t="s">
@@ -14525,36 +13995,16 @@
       </c>
       <c r="G400" s="7"/>
       <c r="H400" s="7"/>
-      <c r="I400" s="7">
-        <v>6</v>
-      </c>
-      <c r="J400" s="7">
-        <v>7</v>
-      </c>
-      <c r="K400" s="7">
-        <v>16</v>
-      </c>
-      <c r="L400" s="7">
-        <v>18</v>
-      </c>
-      <c r="M400" s="7">
-        <v>104</v>
-      </c>
-      <c r="N400" s="7">
-        <v>26</v>
-      </c>
-      <c r="O400" s="7">
-        <v>85</v>
-      </c>
-      <c r="P400" s="7">
-        <v>32</v>
-      </c>
-      <c r="Q400" s="7">
-        <v>7</v>
-      </c>
-      <c r="R400" s="7">
-        <v>17</v>
-      </c>
+      <c r="I400" s="7"/>
+      <c r="J400" s="7"/>
+      <c r="K400" s="7"/>
+      <c r="L400" s="7"/>
+      <c r="M400" s="7"/>
+      <c r="N400" s="7"/>
+      <c r="O400" s="7"/>
+      <c r="P400" s="7"/>
+      <c r="Q400" s="7"/>
+      <c r="R400" s="7"/>
     </row>
     <row r="401" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A401" s="18" t="s">
@@ -14576,39 +14026,17 @@
         <v>180</v>
       </c>
       <c r="G401" s="7"/>
-      <c r="H401" s="7">
-        <v>23</v>
-      </c>
-      <c r="I401" s="7">
-        <v>57</v>
-      </c>
-      <c r="J401" s="7">
-        <v>50</v>
-      </c>
-      <c r="K401" s="7">
-        <v>68</v>
-      </c>
-      <c r="L401" s="7">
-        <v>53</v>
-      </c>
-      <c r="M401" s="7">
-        <v>79</v>
-      </c>
-      <c r="N401" s="7">
-        <v>18</v>
-      </c>
-      <c r="O401" s="7">
-        <v>103</v>
-      </c>
-      <c r="P401" s="7">
-        <v>48</v>
-      </c>
-      <c r="Q401" s="7">
-        <v>32</v>
-      </c>
-      <c r="R401" s="7">
-        <v>8</v>
-      </c>
+      <c r="H401" s="7"/>
+      <c r="I401" s="7"/>
+      <c r="J401" s="7"/>
+      <c r="K401" s="7"/>
+      <c r="L401" s="7"/>
+      <c r="M401" s="7"/>
+      <c r="N401" s="7"/>
+      <c r="O401" s="7"/>
+      <c r="P401" s="7"/>
+      <c r="Q401" s="7"/>
+      <c r="R401" s="7"/>
     </row>
     <row r="402" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A402" s="18" t="s">
@@ -14631,36 +14059,16 @@
       </c>
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
-      <c r="I402" s="7">
-        <v>40</v>
-      </c>
-      <c r="J402" s="7">
-        <v>23</v>
-      </c>
-      <c r="K402" s="7">
-        <v>48</v>
-      </c>
-      <c r="L402" s="7">
-        <v>62</v>
-      </c>
-      <c r="M402" s="7">
-        <v>61</v>
-      </c>
-      <c r="N402" s="7">
-        <v>9</v>
-      </c>
-      <c r="O402" s="7">
-        <v>86</v>
-      </c>
-      <c r="P402" s="7">
-        <v>35</v>
-      </c>
-      <c r="Q402" s="7">
-        <v>23</v>
-      </c>
-      <c r="R402" s="7">
-        <v>3</v>
-      </c>
+      <c r="I402" s="7"/>
+      <c r="J402" s="7"/>
+      <c r="K402" s="7"/>
+      <c r="L402" s="7"/>
+      <c r="M402" s="7"/>
+      <c r="N402" s="7"/>
+      <c r="O402" s="7"/>
+      <c r="P402" s="7"/>
+      <c r="Q402" s="7"/>
+      <c r="R402" s="7"/>
     </row>
     <row r="403" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A403" s="18" t="s">
@@ -14682,39 +14090,17 @@
         <v>182</v>
       </c>
       <c r="G403" s="7"/>
-      <c r="H403" s="7">
-        <v>2</v>
-      </c>
-      <c r="I403" s="7">
-        <v>26</v>
-      </c>
-      <c r="J403" s="7">
-        <v>47</v>
-      </c>
-      <c r="K403" s="7">
-        <v>69</v>
-      </c>
-      <c r="L403" s="7">
-        <v>89</v>
-      </c>
-      <c r="M403" s="7">
-        <v>60</v>
-      </c>
-      <c r="N403" s="7">
-        <v>36</v>
-      </c>
-      <c r="O403" s="7">
-        <v>90</v>
-      </c>
-      <c r="P403" s="7">
-        <v>43</v>
-      </c>
-      <c r="Q403" s="7">
-        <v>15</v>
-      </c>
-      <c r="R403" s="7">
-        <v>11</v>
-      </c>
+      <c r="H403" s="7"/>
+      <c r="I403" s="7"/>
+      <c r="J403" s="7"/>
+      <c r="K403" s="7"/>
+      <c r="L403" s="7"/>
+      <c r="M403" s="7"/>
+      <c r="N403" s="7"/>
+      <c r="O403" s="7"/>
+      <c r="P403" s="7"/>
+      <c r="Q403" s="7"/>
+      <c r="R403" s="7"/>
     </row>
     <row r="404" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A404" s="18" t="s">
@@ -14737,36 +14123,16 @@
       </c>
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
-      <c r="I404" s="7">
-        <v>28</v>
-      </c>
-      <c r="J404" s="7">
-        <v>32</v>
-      </c>
-      <c r="K404" s="7">
-        <v>46</v>
-      </c>
-      <c r="L404" s="7">
-        <v>50</v>
-      </c>
-      <c r="M404" s="7">
-        <v>26</v>
-      </c>
-      <c r="N404" s="7">
-        <v>18</v>
-      </c>
-      <c r="O404" s="7">
-        <v>29</v>
-      </c>
-      <c r="P404" s="7">
-        <v>17</v>
-      </c>
-      <c r="Q404" s="7">
-        <v>8</v>
-      </c>
-      <c r="R404" s="7">
-        <v>3</v>
-      </c>
+      <c r="I404" s="7"/>
+      <c r="J404" s="7"/>
+      <c r="K404" s="7"/>
+      <c r="L404" s="7"/>
+      <c r="M404" s="7"/>
+      <c r="N404" s="7"/>
+      <c r="O404" s="7"/>
+      <c r="P404" s="7"/>
+      <c r="Q404" s="7"/>
+      <c r="R404" s="7"/>
     </row>
     <row r="405" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A405" s="18" t="s">
@@ -14788,39 +14154,17 @@
         <v>184</v>
       </c>
       <c r="G405" s="7"/>
-      <c r="H405" s="7">
-        <v>1</v>
-      </c>
-      <c r="I405" s="7">
-        <v>23</v>
-      </c>
-      <c r="J405" s="7">
-        <v>61</v>
-      </c>
-      <c r="K405" s="7">
-        <v>75</v>
-      </c>
-      <c r="L405" s="7">
-        <v>72</v>
-      </c>
-      <c r="M405" s="7">
-        <v>56</v>
-      </c>
-      <c r="N405" s="7">
-        <v>26</v>
-      </c>
-      <c r="O405" s="7">
-        <v>70</v>
-      </c>
-      <c r="P405" s="7">
-        <v>49</v>
-      </c>
-      <c r="Q405" s="7">
-        <v>40</v>
-      </c>
-      <c r="R405" s="7">
-        <v>3</v>
-      </c>
+      <c r="H405" s="7"/>
+      <c r="I405" s="7"/>
+      <c r="J405" s="7"/>
+      <c r="K405" s="7"/>
+      <c r="L405" s="7"/>
+      <c r="M405" s="7"/>
+      <c r="N405" s="7"/>
+      <c r="O405" s="7"/>
+      <c r="P405" s="7"/>
+      <c r="Q405" s="7"/>
+      <c r="R405" s="7"/>
     </row>
     <row r="406" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A406" s="18" t="s">
@@ -14842,39 +14186,17 @@
         <v>185</v>
       </c>
       <c r="G406" s="7"/>
-      <c r="H406" s="7">
-        <v>3</v>
-      </c>
-      <c r="I406" s="7">
-        <v>23</v>
-      </c>
-      <c r="J406" s="7">
-        <v>40</v>
-      </c>
-      <c r="K406" s="7">
-        <v>47</v>
-      </c>
-      <c r="L406" s="7">
-        <v>32</v>
-      </c>
-      <c r="M406" s="7">
-        <v>44</v>
-      </c>
-      <c r="N406" s="7">
-        <v>16</v>
-      </c>
-      <c r="O406" s="7">
-        <v>60</v>
-      </c>
-      <c r="P406" s="7">
-        <v>47</v>
-      </c>
-      <c r="Q406" s="7">
-        <v>27</v>
-      </c>
-      <c r="R406" s="7">
-        <v>3</v>
-      </c>
+      <c r="H406" s="7"/>
+      <c r="I406" s="7"/>
+      <c r="J406" s="7"/>
+      <c r="K406" s="7"/>
+      <c r="L406" s="7"/>
+      <c r="M406" s="7"/>
+      <c r="N406" s="7"/>
+      <c r="O406" s="7"/>
+      <c r="P406" s="7"/>
+      <c r="Q406" s="7"/>
+      <c r="R406" s="7"/>
     </row>
     <row r="407" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A407" s="18" t="s">
@@ -14895,42 +14217,18 @@
       <c r="F407" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G407" s="7">
-        <v>1</v>
-      </c>
-      <c r="H407" s="7">
-        <v>6</v>
-      </c>
-      <c r="I407" s="7">
-        <v>25</v>
-      </c>
-      <c r="J407" s="7">
-        <v>33</v>
-      </c>
-      <c r="K407" s="7">
-        <v>29</v>
-      </c>
-      <c r="L407" s="7">
-        <v>37</v>
-      </c>
-      <c r="M407" s="7">
-        <v>34</v>
-      </c>
-      <c r="N407" s="7">
-        <v>14</v>
-      </c>
-      <c r="O407" s="7">
-        <v>54</v>
-      </c>
-      <c r="P407" s="7">
-        <v>20</v>
-      </c>
-      <c r="Q407" s="7">
-        <v>9</v>
-      </c>
-      <c r="R407" s="7">
-        <v>1</v>
-      </c>
+      <c r="G407" s="7"/>
+      <c r="H407" s="7"/>
+      <c r="I407" s="7"/>
+      <c r="J407" s="7"/>
+      <c r="K407" s="7"/>
+      <c r="L407" s="7"/>
+      <c r="M407" s="7"/>
+      <c r="N407" s="7"/>
+      <c r="O407" s="7"/>
+      <c r="P407" s="7"/>
+      <c r="Q407" s="7"/>
+      <c r="R407" s="7"/>
     </row>
     <row r="408" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A408" s="18" t="s">
@@ -14952,39 +14250,17 @@
         <v>187</v>
       </c>
       <c r="G408" s="7"/>
-      <c r="H408" s="7">
-        <v>1</v>
-      </c>
-      <c r="I408" s="7">
-        <v>16</v>
-      </c>
-      <c r="J408" s="7">
-        <v>47</v>
-      </c>
-      <c r="K408" s="7">
-        <v>47</v>
-      </c>
-      <c r="L408" s="7">
-        <v>59</v>
-      </c>
-      <c r="M408" s="7">
-        <v>61</v>
-      </c>
-      <c r="N408" s="7">
-        <v>19</v>
-      </c>
-      <c r="O408" s="7">
-        <v>55</v>
-      </c>
-      <c r="P408" s="7">
-        <v>16</v>
-      </c>
-      <c r="Q408" s="7">
-        <v>23</v>
-      </c>
-      <c r="R408" s="7">
-        <v>4</v>
-      </c>
+      <c r="H408" s="7"/>
+      <c r="I408" s="7"/>
+      <c r="J408" s="7"/>
+      <c r="K408" s="7"/>
+      <c r="L408" s="7"/>
+      <c r="M408" s="7"/>
+      <c r="N408" s="7"/>
+      <c r="O408" s="7"/>
+      <c r="P408" s="7"/>
+      <c r="Q408" s="7"/>
+      <c r="R408" s="7"/>
     </row>
     <row r="409" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A409" s="18" t="s">
@@ -15007,36 +14283,16 @@
       </c>
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
-      <c r="I409" s="7">
-        <v>12</v>
-      </c>
-      <c r="J409" s="7">
-        <v>24</v>
-      </c>
-      <c r="K409" s="7">
-        <v>22</v>
-      </c>
-      <c r="L409" s="7">
-        <v>41</v>
-      </c>
-      <c r="M409" s="7">
-        <v>50</v>
-      </c>
-      <c r="N409" s="7">
-        <v>13</v>
-      </c>
-      <c r="O409" s="7">
-        <v>66</v>
-      </c>
-      <c r="P409" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q409" s="7">
-        <v>5</v>
-      </c>
-      <c r="R409" s="7">
-        <v>7</v>
-      </c>
+      <c r="I409" s="7"/>
+      <c r="J409" s="7"/>
+      <c r="K409" s="7"/>
+      <c r="L409" s="7"/>
+      <c r="M409" s="7"/>
+      <c r="N409" s="7"/>
+      <c r="O409" s="7"/>
+      <c r="P409" s="7"/>
+      <c r="Q409" s="7"/>
+      <c r="R409" s="7"/>
     </row>
     <row r="410" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A410" s="18" t="s">
@@ -15058,39 +14314,17 @@
         <v>189</v>
       </c>
       <c r="G410" s="7"/>
-      <c r="H410" s="7">
-        <v>1</v>
-      </c>
-      <c r="I410" s="7">
-        <v>17</v>
-      </c>
-      <c r="J410" s="7">
-        <v>32</v>
-      </c>
-      <c r="K410" s="7">
-        <v>26</v>
-      </c>
-      <c r="L410" s="7">
-        <v>23</v>
-      </c>
-      <c r="M410" s="7">
-        <v>72</v>
-      </c>
-      <c r="N410" s="7">
-        <v>9</v>
-      </c>
-      <c r="O410" s="7">
-        <v>64</v>
-      </c>
-      <c r="P410" s="7">
-        <v>19</v>
-      </c>
-      <c r="Q410" s="7">
-        <v>4</v>
-      </c>
-      <c r="R410" s="7">
-        <v>2</v>
-      </c>
+      <c r="H410" s="7"/>
+      <c r="I410" s="7"/>
+      <c r="J410" s="7"/>
+      <c r="K410" s="7"/>
+      <c r="L410" s="7"/>
+      <c r="M410" s="7"/>
+      <c r="N410" s="7"/>
+      <c r="O410" s="7"/>
+      <c r="P410" s="7"/>
+      <c r="Q410" s="7"/>
+      <c r="R410" s="7"/>
     </row>
     <row r="411" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A411" s="18" t="s">
@@ -15113,33 +14347,15 @@
       </c>
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
-      <c r="I411" s="7">
-        <v>1</v>
-      </c>
-      <c r="J411" s="7">
-        <v>6</v>
-      </c>
-      <c r="K411" s="7">
-        <v>12</v>
-      </c>
-      <c r="L411" s="7">
-        <v>17</v>
-      </c>
-      <c r="M411" s="7">
-        <v>51</v>
-      </c>
-      <c r="N411" s="7">
-        <v>4</v>
-      </c>
-      <c r="O411" s="7">
-        <v>28</v>
-      </c>
-      <c r="P411" s="7">
-        <v>13</v>
-      </c>
-      <c r="Q411" s="7">
-        <v>8</v>
-      </c>
+      <c r="I411" s="7"/>
+      <c r="J411" s="7"/>
+      <c r="K411" s="7"/>
+      <c r="L411" s="7"/>
+      <c r="M411" s="7"/>
+      <c r="N411" s="7"/>
+      <c r="O411" s="7"/>
+      <c r="P411" s="7"/>
+      <c r="Q411" s="7"/>
       <c r="R411" s="7"/>
     </row>
     <row r="412" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -15162,39 +14378,17 @@
         <v>191</v>
       </c>
       <c r="G412" s="7"/>
-      <c r="H412" s="7">
-        <v>1</v>
-      </c>
-      <c r="I412" s="7">
-        <v>27</v>
-      </c>
-      <c r="J412" s="7">
-        <v>46</v>
-      </c>
-      <c r="K412" s="7">
-        <v>66</v>
-      </c>
-      <c r="L412" s="7">
-        <v>99</v>
-      </c>
-      <c r="M412" s="7">
-        <v>58</v>
-      </c>
-      <c r="N412" s="7">
-        <v>29</v>
-      </c>
-      <c r="O412" s="7">
-        <v>97</v>
-      </c>
-      <c r="P412" s="7">
-        <v>40</v>
-      </c>
-      <c r="Q412" s="7">
-        <v>12</v>
-      </c>
-      <c r="R412" s="7">
-        <v>8</v>
-      </c>
+      <c r="H412" s="7"/>
+      <c r="I412" s="7"/>
+      <c r="J412" s="7"/>
+      <c r="K412" s="7"/>
+      <c r="L412" s="7"/>
+      <c r="M412" s="7"/>
+      <c r="N412" s="7"/>
+      <c r="O412" s="7"/>
+      <c r="P412" s="7"/>
+      <c r="Q412" s="7"/>
+      <c r="R412" s="7"/>
     </row>
     <row r="413" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A413" s="18" t="s">
@@ -15216,39 +14410,17 @@
         <v>192</v>
       </c>
       <c r="G413" s="7"/>
-      <c r="H413" s="7">
-        <v>2</v>
-      </c>
-      <c r="I413" s="7">
-        <v>12</v>
-      </c>
-      <c r="J413" s="7">
-        <v>20</v>
-      </c>
-      <c r="K413" s="7">
-        <v>28</v>
-      </c>
-      <c r="L413" s="7">
-        <v>23</v>
-      </c>
-      <c r="M413" s="7">
-        <v>29</v>
-      </c>
-      <c r="N413" s="7">
-        <v>12</v>
-      </c>
-      <c r="O413" s="7">
-        <v>28</v>
-      </c>
-      <c r="P413" s="7">
-        <v>32</v>
-      </c>
-      <c r="Q413" s="7">
-        <v>13</v>
-      </c>
-      <c r="R413" s="7">
-        <v>1</v>
-      </c>
+      <c r="H413" s="7"/>
+      <c r="I413" s="7"/>
+      <c r="J413" s="7"/>
+      <c r="K413" s="7"/>
+      <c r="L413" s="7"/>
+      <c r="M413" s="7"/>
+      <c r="N413" s="7"/>
+      <c r="O413" s="7"/>
+      <c r="P413" s="7"/>
+      <c r="Q413" s="7"/>
+      <c r="R413" s="7"/>
     </row>
     <row r="414" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A414" s="18" t="s">
@@ -15270,39 +14442,17 @@
         <v>193</v>
       </c>
       <c r="G414" s="7"/>
-      <c r="H414" s="7">
-        <v>2</v>
-      </c>
-      <c r="I414" s="7">
-        <v>8</v>
-      </c>
-      <c r="J414" s="7">
-        <v>27</v>
-      </c>
-      <c r="K414" s="7">
-        <v>35</v>
-      </c>
-      <c r="L414" s="7">
-        <v>37</v>
-      </c>
-      <c r="M414" s="7">
-        <v>49</v>
-      </c>
-      <c r="N414" s="7">
-        <v>25</v>
-      </c>
-      <c r="O414" s="7">
-        <v>53</v>
-      </c>
-      <c r="P414" s="7">
-        <v>39</v>
-      </c>
-      <c r="Q414" s="7">
-        <v>11</v>
-      </c>
-      <c r="R414" s="7">
-        <v>4</v>
-      </c>
+      <c r="H414" s="7"/>
+      <c r="I414" s="7"/>
+      <c r="J414" s="7"/>
+      <c r="K414" s="7"/>
+      <c r="L414" s="7"/>
+      <c r="M414" s="7"/>
+      <c r="N414" s="7"/>
+      <c r="O414" s="7"/>
+      <c r="P414" s="7"/>
+      <c r="Q414" s="7"/>
+      <c r="R414" s="7"/>
     </row>
     <row r="415" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A415" s="18" t="s">
@@ -15325,33 +14475,15 @@
       </c>
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
-      <c r="I415" s="7">
-        <v>8</v>
-      </c>
-      <c r="J415" s="7">
-        <v>15</v>
-      </c>
-      <c r="K415" s="7">
-        <v>27</v>
-      </c>
-      <c r="L415" s="7">
-        <v>25</v>
-      </c>
-      <c r="M415" s="7">
-        <v>18</v>
-      </c>
-      <c r="N415" s="7">
-        <v>7</v>
-      </c>
-      <c r="O415" s="7">
-        <v>20</v>
-      </c>
-      <c r="P415" s="7">
-        <v>24</v>
-      </c>
-      <c r="Q415" s="7">
-        <v>16</v>
-      </c>
+      <c r="I415" s="7"/>
+      <c r="J415" s="7"/>
+      <c r="K415" s="7"/>
+      <c r="L415" s="7"/>
+      <c r="M415" s="7"/>
+      <c r="N415" s="7"/>
+      <c r="O415" s="7"/>
+      <c r="P415" s="7"/>
+      <c r="Q415" s="7"/>
       <c r="R415" s="7"/>
     </row>
     <row r="416" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
@@ -15374,39 +14506,17 @@
         <v>195</v>
       </c>
       <c r="G416" s="7"/>
-      <c r="H416" s="7">
-        <v>2</v>
-      </c>
-      <c r="I416" s="7">
-        <v>35</v>
-      </c>
-      <c r="J416" s="7">
-        <v>62</v>
-      </c>
-      <c r="K416" s="7">
-        <v>89</v>
-      </c>
-      <c r="L416" s="7">
-        <v>80</v>
-      </c>
-      <c r="M416" s="7">
-        <v>41</v>
-      </c>
-      <c r="N416" s="7">
-        <v>12</v>
-      </c>
-      <c r="O416" s="7">
-        <v>96</v>
-      </c>
-      <c r="P416" s="7">
-        <v>62</v>
-      </c>
-      <c r="Q416" s="7">
-        <v>47</v>
-      </c>
-      <c r="R416" s="7">
-        <v>5</v>
-      </c>
+      <c r="H416" s="7"/>
+      <c r="I416" s="7"/>
+      <c r="J416" s="7"/>
+      <c r="K416" s="7"/>
+      <c r="L416" s="7"/>
+      <c r="M416" s="7"/>
+      <c r="N416" s="7"/>
+      <c r="O416" s="7"/>
+      <c r="P416" s="7"/>
+      <c r="Q416" s="7"/>
+      <c r="R416" s="7"/>
     </row>
     <row r="417" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A417" s="18" t="s">
@@ -15429,32 +14539,16 @@
       </c>
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
-      <c r="I417" s="7">
-        <v>1</v>
-      </c>
+      <c r="I417" s="7"/>
       <c r="J417" s="7"/>
       <c r="K417" s="7"/>
-      <c r="L417" s="7">
-        <v>4</v>
-      </c>
-      <c r="M417" s="7">
-        <v>129</v>
-      </c>
-      <c r="N417" s="7">
-        <v>43</v>
-      </c>
-      <c r="O417" s="7">
-        <v>102</v>
-      </c>
-      <c r="P417" s="7">
-        <v>34</v>
-      </c>
-      <c r="Q417" s="7">
-        <v>3</v>
-      </c>
-      <c r="R417" s="7">
-        <v>22</v>
-      </c>
+      <c r="L417" s="7"/>
+      <c r="M417" s="7"/>
+      <c r="N417" s="7"/>
+      <c r="O417" s="7"/>
+      <c r="P417" s="7"/>
+      <c r="Q417" s="7"/>
+      <c r="R417" s="7"/>
     </row>
     <row r="418" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A418" s="18" t="s">
@@ -15477,36 +14571,16 @@
       </c>
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
-      <c r="I418" s="7">
-        <v>1</v>
-      </c>
-      <c r="J418" s="7">
-        <v>1</v>
-      </c>
-      <c r="K418" s="7">
-        <v>1</v>
-      </c>
-      <c r="L418" s="7">
-        <v>1</v>
-      </c>
-      <c r="M418" s="7">
-        <v>187</v>
-      </c>
-      <c r="N418" s="7">
-        <v>133</v>
-      </c>
-      <c r="O418" s="7">
-        <v>184</v>
-      </c>
-      <c r="P418" s="7">
-        <v>45</v>
-      </c>
-      <c r="Q418" s="7">
-        <v>9</v>
-      </c>
-      <c r="R418" s="7">
-        <v>25</v>
-      </c>
+      <c r="I418" s="7"/>
+      <c r="J418" s="7"/>
+      <c r="K418" s="7"/>
+      <c r="L418" s="7"/>
+      <c r="M418" s="7"/>
+      <c r="N418" s="7"/>
+      <c r="O418" s="7"/>
+      <c r="P418" s="7"/>
+      <c r="Q418" s="7"/>
+      <c r="R418" s="7"/>
     </row>
     <row r="419" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A419" s="18" t="s">
@@ -15533,24 +14607,12 @@
       <c r="J419" s="7"/>
       <c r="K419" s="7"/>
       <c r="L419" s="7"/>
-      <c r="M419" s="7">
-        <v>132</v>
-      </c>
-      <c r="N419" s="7">
-        <v>18</v>
-      </c>
-      <c r="O419" s="7">
-        <v>40</v>
-      </c>
-      <c r="P419" s="7">
-        <v>12</v>
-      </c>
-      <c r="Q419" s="7">
-        <v>3</v>
-      </c>
-      <c r="R419" s="7">
-        <v>6</v>
-      </c>
+      <c r="M419" s="7"/>
+      <c r="N419" s="7"/>
+      <c r="O419" s="7"/>
+      <c r="P419" s="7"/>
+      <c r="Q419" s="7"/>
+      <c r="R419" s="7"/>
     </row>
     <row r="420" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A420" s="18" t="s">
@@ -15575,30 +14637,14 @@
       <c r="H420" s="7"/>
       <c r="I420" s="7"/>
       <c r="J420" s="7"/>
-      <c r="K420" s="7">
-        <v>1</v>
-      </c>
-      <c r="L420" s="7">
-        <v>9</v>
-      </c>
-      <c r="M420" s="7">
-        <v>232</v>
-      </c>
-      <c r="N420" s="7">
-        <v>120</v>
-      </c>
-      <c r="O420" s="7">
-        <v>218</v>
-      </c>
-      <c r="P420" s="7">
-        <v>66</v>
-      </c>
-      <c r="Q420" s="7">
-        <v>16</v>
-      </c>
-      <c r="R420" s="7">
-        <v>27</v>
-      </c>
+      <c r="K420" s="7"/>
+      <c r="L420" s="7"/>
+      <c r="M420" s="7"/>
+      <c r="N420" s="7"/>
+      <c r="O420" s="7"/>
+      <c r="P420" s="7"/>
+      <c r="Q420" s="7"/>
+      <c r="R420" s="7"/>
     </row>
     <row r="421" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A421" s="18" t="s">
@@ -15620,39 +14666,17 @@
         <v>200</v>
       </c>
       <c r="G421" s="7"/>
-      <c r="H421" s="7">
-        <v>5</v>
-      </c>
-      <c r="I421" s="7">
-        <v>22</v>
-      </c>
-      <c r="J421" s="7">
-        <v>48</v>
-      </c>
-      <c r="K421" s="7">
-        <v>67</v>
-      </c>
-      <c r="L421" s="7">
-        <v>83</v>
-      </c>
-      <c r="M421" s="7">
-        <v>106</v>
-      </c>
-      <c r="N421" s="7">
-        <v>62</v>
-      </c>
-      <c r="O421" s="7">
-        <v>98</v>
-      </c>
-      <c r="P421" s="7">
-        <v>40</v>
-      </c>
-      <c r="Q421" s="7">
-        <v>40</v>
-      </c>
-      <c r="R421" s="7">
-        <v>6</v>
-      </c>
+      <c r="H421" s="7"/>
+      <c r="I421" s="7"/>
+      <c r="J421" s="7"/>
+      <c r="K421" s="7"/>
+      <c r="L421" s="7"/>
+      <c r="M421" s="7"/>
+      <c r="N421" s="7"/>
+      <c r="O421" s="7"/>
+      <c r="P421" s="7"/>
+      <c r="Q421" s="7"/>
+      <c r="R421" s="7"/>
     </row>
     <row r="422" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A422" s="18" t="s">
@@ -15675,36 +14699,16 @@
       </c>
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
-      <c r="I422" s="7">
-        <v>3</v>
-      </c>
-      <c r="J422" s="7">
-        <v>14</v>
-      </c>
-      <c r="K422" s="7">
-        <v>20</v>
-      </c>
-      <c r="L422" s="7">
-        <v>25</v>
-      </c>
-      <c r="M422" s="7">
-        <v>118</v>
-      </c>
-      <c r="N422" s="7">
-        <v>56</v>
-      </c>
-      <c r="O422" s="7">
-        <v>81</v>
-      </c>
-      <c r="P422" s="7">
-        <v>32</v>
-      </c>
-      <c r="Q422" s="7">
-        <v>15</v>
-      </c>
-      <c r="R422" s="7">
-        <v>9</v>
-      </c>
+      <c r="I422" s="7"/>
+      <c r="J422" s="7"/>
+      <c r="K422" s="7"/>
+      <c r="L422" s="7"/>
+      <c r="M422" s="7"/>
+      <c r="N422" s="7"/>
+      <c r="O422" s="7"/>
+      <c r="P422" s="7"/>
+      <c r="Q422" s="7"/>
+      <c r="R422" s="7"/>
     </row>
     <row r="423" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A423" s="18" t="s">
@@ -15730,27 +14734,13 @@
       <c r="I423" s="7"/>
       <c r="J423" s="7"/>
       <c r="K423" s="7"/>
-      <c r="L423" s="7">
-        <v>5</v>
-      </c>
-      <c r="M423" s="7">
-        <v>191</v>
-      </c>
-      <c r="N423" s="7">
-        <v>74</v>
-      </c>
-      <c r="O423" s="7">
-        <v>149</v>
-      </c>
-      <c r="P423" s="7">
-        <v>37</v>
-      </c>
-      <c r="Q423" s="7">
-        <v>4</v>
-      </c>
-      <c r="R423" s="7">
-        <v>8</v>
-      </c>
+      <c r="L423" s="7"/>
+      <c r="M423" s="7"/>
+      <c r="N423" s="7"/>
+      <c r="O423" s="7"/>
+      <c r="P423" s="7"/>
+      <c r="Q423" s="7"/>
+      <c r="R423" s="7"/>
     </row>
     <row r="424" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A424" s="18" t="s">
@@ -15773,36 +14763,16 @@
       </c>
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
-      <c r="I424" s="7">
-        <v>8</v>
-      </c>
-      <c r="J424" s="7">
-        <v>13</v>
-      </c>
-      <c r="K424" s="7">
-        <v>24</v>
-      </c>
-      <c r="L424" s="7">
-        <v>22</v>
-      </c>
-      <c r="M424" s="7">
-        <v>127</v>
-      </c>
-      <c r="N424" s="7">
-        <v>67</v>
-      </c>
-      <c r="O424" s="7">
-        <v>99</v>
-      </c>
-      <c r="P424" s="7">
-        <v>32</v>
-      </c>
-      <c r="Q424" s="7">
-        <v>7</v>
-      </c>
-      <c r="R424" s="7">
-        <v>12</v>
-      </c>
+      <c r="I424" s="7"/>
+      <c r="J424" s="7"/>
+      <c r="K424" s="7"/>
+      <c r="L424" s="7"/>
+      <c r="M424" s="7"/>
+      <c r="N424" s="7"/>
+      <c r="O424" s="7"/>
+      <c r="P424" s="7"/>
+      <c r="Q424" s="7"/>
+      <c r="R424" s="7"/>
     </row>
     <row r="425" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A425" s="18" t="s">
@@ -15825,36 +14795,16 @@
       </c>
       <c r="G425" s="7"/>
       <c r="H425" s="7"/>
-      <c r="I425" s="7">
-        <v>5</v>
-      </c>
-      <c r="J425" s="7">
-        <v>12</v>
-      </c>
-      <c r="K425" s="7">
-        <v>14</v>
-      </c>
-      <c r="L425" s="7">
-        <v>25</v>
-      </c>
-      <c r="M425" s="7">
-        <v>70</v>
-      </c>
-      <c r="N425" s="7">
-        <v>45</v>
-      </c>
-      <c r="O425" s="7">
-        <v>59</v>
-      </c>
-      <c r="P425" s="7">
-        <v>22</v>
-      </c>
-      <c r="Q425" s="7">
-        <v>7</v>
-      </c>
-      <c r="R425" s="7">
-        <v>13</v>
-      </c>
+      <c r="I425" s="7"/>
+      <c r="J425" s="7"/>
+      <c r="K425" s="7"/>
+      <c r="L425" s="7"/>
+      <c r="M425" s="7"/>
+      <c r="N425" s="7"/>
+      <c r="O425" s="7"/>
+      <c r="P425" s="7"/>
+      <c r="Q425" s="7"/>
+      <c r="R425" s="7"/>
     </row>
     <row r="426" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A426" s="18" t="s">
@@ -15879,26 +14829,14 @@
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
       <c r="J426" s="7"/>
-      <c r="K426" s="7">
-        <v>1</v>
-      </c>
+      <c r="K426" s="7"/>
       <c r="L426" s="7"/>
-      <c r="M426" s="7">
-        <v>96</v>
-      </c>
-      <c r="N426" s="7">
-        <v>20</v>
-      </c>
-      <c r="O426" s="7">
-        <v>28</v>
-      </c>
-      <c r="P426" s="7">
-        <v>5</v>
-      </c>
+      <c r="M426" s="7"/>
+      <c r="N426" s="7"/>
+      <c r="O426" s="7"/>
+      <c r="P426" s="7"/>
       <c r="Q426" s="7"/>
-      <c r="R426" s="7">
-        <v>11</v>
-      </c>
+      <c r="R426" s="7"/>
     </row>
     <row r="427" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A427" s="18" t="s">
@@ -15924,27 +14862,13 @@
       <c r="I427" s="7"/>
       <c r="J427" s="7"/>
       <c r="K427" s="7"/>
-      <c r="L427" s="7">
-        <v>1</v>
-      </c>
-      <c r="M427" s="7">
-        <v>216</v>
-      </c>
-      <c r="N427" s="7">
-        <v>104</v>
-      </c>
-      <c r="O427" s="7">
-        <v>209</v>
-      </c>
-      <c r="P427" s="7">
-        <v>69</v>
-      </c>
-      <c r="Q427" s="7">
-        <v>4</v>
-      </c>
-      <c r="R427" s="7">
-        <v>33</v>
-      </c>
+      <c r="L427" s="7"/>
+      <c r="M427" s="7"/>
+      <c r="N427" s="7"/>
+      <c r="O427" s="7"/>
+      <c r="P427" s="7"/>
+      <c r="Q427" s="7"/>
+      <c r="R427" s="7"/>
     </row>
     <row r="428" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A428" s="18" t="s">
@@ -15967,36 +14891,16 @@
       </c>
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
-      <c r="I428" s="7">
-        <v>12</v>
-      </c>
-      <c r="J428" s="7">
-        <v>27</v>
-      </c>
-      <c r="K428" s="7">
-        <v>34</v>
-      </c>
-      <c r="L428" s="7">
-        <v>24</v>
-      </c>
-      <c r="M428" s="7">
-        <v>93</v>
-      </c>
-      <c r="N428" s="7">
-        <v>27</v>
-      </c>
-      <c r="O428" s="7">
-        <v>71</v>
-      </c>
-      <c r="P428" s="7">
-        <v>25</v>
-      </c>
-      <c r="Q428" s="7">
-        <v>8</v>
-      </c>
-      <c r="R428" s="7">
-        <v>7</v>
-      </c>
+      <c r="I428" s="7"/>
+      <c r="J428" s="7"/>
+      <c r="K428" s="7"/>
+      <c r="L428" s="7"/>
+      <c r="M428" s="7"/>
+      <c r="N428" s="7"/>
+      <c r="O428" s="7"/>
+      <c r="P428" s="7"/>
+      <c r="Q428" s="7"/>
+      <c r="R428" s="7"/>
     </row>
     <row r="429" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A429" s="18" t="s">
@@ -16021,30 +14925,14 @@
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
       <c r="J429" s="7"/>
-      <c r="K429" s="7">
-        <v>1</v>
-      </c>
-      <c r="L429" s="7">
-        <v>3</v>
-      </c>
-      <c r="M429" s="7">
-        <v>247</v>
-      </c>
-      <c r="N429" s="7">
-        <v>102</v>
-      </c>
-      <c r="O429" s="7">
-        <v>164</v>
-      </c>
-      <c r="P429" s="7">
-        <v>48</v>
-      </c>
-      <c r="Q429" s="7">
-        <v>5</v>
-      </c>
-      <c r="R429" s="7">
-        <v>24</v>
-      </c>
+      <c r="K429" s="7"/>
+      <c r="L429" s="7"/>
+      <c r="M429" s="7"/>
+      <c r="N429" s="7"/>
+      <c r="O429" s="7"/>
+      <c r="P429" s="7"/>
+      <c r="Q429" s="7"/>
+      <c r="R429" s="7"/>
     </row>
     <row r="430" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A430" s="18" t="s">
@@ -16066,39 +14954,17 @@
         <v>209</v>
       </c>
       <c r="G430" s="7"/>
-      <c r="H430" s="7">
-        <v>7</v>
-      </c>
-      <c r="I430" s="7">
-        <v>15</v>
-      </c>
-      <c r="J430" s="7">
-        <v>25</v>
-      </c>
-      <c r="K430" s="7">
-        <v>29</v>
-      </c>
-      <c r="L430" s="7">
-        <v>28</v>
-      </c>
-      <c r="M430" s="7">
-        <v>233</v>
-      </c>
-      <c r="N430" s="7">
-        <v>109</v>
-      </c>
-      <c r="O430" s="7">
-        <v>141</v>
-      </c>
-      <c r="P430" s="7">
-        <v>51</v>
-      </c>
-      <c r="Q430" s="7">
-        <v>12</v>
-      </c>
-      <c r="R430" s="7">
-        <v>43</v>
-      </c>
+      <c r="H430" s="7"/>
+      <c r="I430" s="7"/>
+      <c r="J430" s="7"/>
+      <c r="K430" s="7"/>
+      <c r="L430" s="7"/>
+      <c r="M430" s="7"/>
+      <c r="N430" s="7"/>
+      <c r="O430" s="7"/>
+      <c r="P430" s="7"/>
+      <c r="Q430" s="7"/>
+      <c r="R430" s="7"/>
     </row>
     <row r="431" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DAAAA2-5C34-4D97-AA99-D764BC20DF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBCE661-1AB7-424E-AC1B-1B7D3EECF61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O681" sqref="O681"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L349" sqref="L349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBCE661-1AB7-424E-AC1B-1B7D3EECF61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBCE30-E027-4DB5-AC45-A205799AF6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L349" sqref="L349"/>
+      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O679" sqref="O679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBCE30-E027-4DB5-AC45-A205799AF6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B126AFA0-9D27-4940-B89A-FC436BC962CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O679" sqref="O679"/>
+      <pane ySplit="1" topLeftCell="A669" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M692" sqref="M692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B126AFA0-9D27-4940-B89A-FC436BC962CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A505F1-2E74-45E1-BEE1-6AC4F048523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A669" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M692" sqref="M692"/>
+      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O693" sqref="O693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A505F1-2E74-45E1-BEE1-6AC4F048523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A020A74-22A0-4C80-92EA-DB610D613E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O693" sqref="O693"/>
+      <pane ySplit="1" topLeftCell="A666" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P680" sqref="P680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E344D5-1F40-4884-B6F2-58A9AB678D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5EC4E3-5F8B-4C45-A95C-BC6888349360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N691" sqref="N691"/>
+      <pane ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K634" sqref="K634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5EC4E3-5F8B-4C45-A95C-BC6888349360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB30EB5-BDAC-428C-B734-93718124DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:R688"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K634" sqref="K634"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaRS.xlsx
+++ b/core/utils/distgradeunificadaRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB30EB5-BDAC-428C-B734-93718124DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAB9DA-92F5-4DF7-B4F7-6394B53EDFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1361,7 +1361,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
